--- a/Base/db_backboneConfig_300.xlsx
+++ b/Base/db_backboneConfig_300.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HOUJ\Documents\GitHub\HOLON\Base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilli\Documents\Project HOLON\Git_Local_Clone\HOLON\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD5F421-7BE0-47E8-9055-24634843DA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93F3300-DC4C-4244-B408-6CE6B6D320BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
+    <workbookView xWindow="1152" yWindow="2460" windowWidth="23040" windowHeight="12216" activeTab="2" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -2345,15 +2345,15 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -2391,13 +2391,13 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2538,13 +2538,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F79AE7D-6C5C-4EEF-8F2D-727C87414EF2}">
   <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="L299" sqref="L299"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="H301" sqref="H301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>178</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>180</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>181</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>182</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>183</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>184</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>185</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>186</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>187</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>188</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>189</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>191</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>192</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>193</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>194</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>195</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>196</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>197</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>198</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>199</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>200</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>201</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>202</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>203</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>204</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>205</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>206</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>207</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>208</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>209</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>210</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>211</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>212</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>213</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>214</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>215</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>216</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>217</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>218</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>219</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>220</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>221</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>222</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>223</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>224</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>225</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>226</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>227</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>228</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>229</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>230</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>231</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>232</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>233</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>234</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>235</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>236</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>237</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>238</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>239</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>240</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>241</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>242</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>243</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>244</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>245</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>246</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>247</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>248</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>249</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>250</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>251</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>252</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>253</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>254</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>255</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>256</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>257</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>258</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>259</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>260</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>261</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>262</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>263</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>264</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>265</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>266</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>267</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>268</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>269</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>270</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>271</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>272</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>273</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>274</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>275</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>276</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>277</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>278</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>279</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>280</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>281</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>282</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>283</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>284</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>285</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>286</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>287</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>288</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>289</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>290</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>291</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>292</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>293</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>294</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>295</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>296</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>297</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>298</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>299</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>4</v>
       </c>
       <c r="H301">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I301" t="s">
         <v>644</v>
@@ -10588,14 +10588,14 @@
       <selection activeCell="I287" sqref="I287"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -12567,7 +12567,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -13060,7 +13060,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
@@ -13145,7 +13145,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
@@ -13213,7 +13213,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
@@ -13332,7 +13332,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
@@ -13417,7 +13417,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
@@ -13451,7 +13451,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
@@ -13536,7 +13536,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
@@ -13587,7 +13587,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>178</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
@@ -13672,7 +13672,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>180</v>
       </c>
@@ -13689,7 +13689,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>181</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>182</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>183</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>184</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>185</v>
       </c>
@@ -13774,7 +13774,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>186</v>
       </c>
@@ -13791,7 +13791,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>187</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>188</v>
       </c>
@@ -13825,7 +13825,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>189</v>
       </c>
@@ -13842,7 +13842,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>191</v>
       </c>
@@ -13876,7 +13876,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>192</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>193</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>194</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>195</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>196</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>197</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>198</v>
       </c>
@@ -13995,7 +13995,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>199</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>200</v>
       </c>
@@ -14029,7 +14029,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>201</v>
       </c>
@@ -14046,7 +14046,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>202</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>203</v>
       </c>
@@ -14080,7 +14080,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>204</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>205</v>
       </c>
@@ -14114,7 +14114,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>206</v>
       </c>
@@ -14131,7 +14131,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>207</v>
       </c>
@@ -14148,7 +14148,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>208</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>209</v>
       </c>
@@ -14182,7 +14182,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>210</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>211</v>
       </c>
@@ -14216,7 +14216,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>212</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>213</v>
       </c>
@@ -14250,7 +14250,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>214</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>215</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>216</v>
       </c>
@@ -14301,7 +14301,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>217</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>218</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>219</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>220</v>
       </c>
@@ -14369,7 +14369,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>221</v>
       </c>
@@ -14386,7 +14386,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>222</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>223</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>224</v>
       </c>
@@ -14437,7 +14437,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>225</v>
       </c>
@@ -14454,7 +14454,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>226</v>
       </c>
@@ -14471,7 +14471,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>227</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>228</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>229</v>
       </c>
@@ -14522,7 +14522,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>230</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>231</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>232</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>233</v>
       </c>
@@ -14590,7 +14590,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>234</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>235</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>236</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>237</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>238</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>239</v>
       </c>
@@ -14692,7 +14692,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>240</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>241</v>
       </c>
@@ -14726,7 +14726,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>242</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>243</v>
       </c>
@@ -14760,7 +14760,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>244</v>
       </c>
@@ -14777,7 +14777,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>245</v>
       </c>
@@ -14794,7 +14794,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>246</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>247</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>248</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>249</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>250</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>251</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>252</v>
       </c>
@@ -14913,7 +14913,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>253</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>254</v>
       </c>
@@ -14947,7 +14947,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>255</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>256</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>257</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>258</v>
       </c>
@@ -15015,7 +15015,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>259</v>
       </c>
@@ -15032,7 +15032,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>260</v>
       </c>
@@ -15049,7 +15049,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>261</v>
       </c>
@@ -15066,7 +15066,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>262</v>
       </c>
@@ -15083,7 +15083,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>263</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>264</v>
       </c>
@@ -15117,7 +15117,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>265</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>266</v>
       </c>
@@ -15151,7 +15151,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>267</v>
       </c>
@@ -15168,7 +15168,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>268</v>
       </c>
@@ -15185,7 +15185,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>269</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>270</v>
       </c>
@@ -15219,7 +15219,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>271</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>272</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>273</v>
       </c>
@@ -15270,7 +15270,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>274</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>275</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>276</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>277</v>
       </c>
@@ -15338,7 +15338,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>278</v>
       </c>
@@ -15355,7 +15355,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>279</v>
       </c>
@@ -15372,7 +15372,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>280</v>
       </c>
@@ -15389,7 +15389,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>281</v>
       </c>
@@ -15406,7 +15406,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>282</v>
       </c>
@@ -15423,7 +15423,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>283</v>
       </c>
@@ -15440,7 +15440,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>284</v>
       </c>
@@ -15457,7 +15457,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -15474,7 +15474,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -15491,7 +15491,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -15542,7 +15542,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -15573,15 +15573,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -15633,7 +15633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -15737,7 +15737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>

--- a/Base/db_backboneConfig_300.xlsx
+++ b/Base/db_backboneConfig_300.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilli\Documents\Project HOLON\Git_Local_Clone\HOLON\Base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HOUJ\Documents\GitHub\HOLON\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93F3300-DC4C-4244-B408-6CE6B6D320BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBF62CC-AA9B-492F-B7E7-A1E4412D2F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="2460" windowWidth="23040" windowHeight="12216" activeTab="2" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -2345,15 +2345,15 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -2391,13 +2391,13 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2542,9 +2542,9 @@
       <selection activeCell="H301" sqref="H301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>128</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>129</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>132</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>133</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>134</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>135</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>136</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>137</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>138</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>139</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>140</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>141</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>143</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>144</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>145</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>146</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>147</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>148</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>149</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>150</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>151</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>152</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>153</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>154</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>155</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>156</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>157</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>158</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>159</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>160</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>161</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>162</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>163</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>164</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>165</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>166</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>167</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>168</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>169</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>170</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>171</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>172</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>173</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>174</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>175</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>176</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>177</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>178</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>179</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>180</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>181</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>182</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>183</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>184</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>185</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>186</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>187</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>188</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>189</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>190</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>191</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>192</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>193</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>194</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>195</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>196</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>197</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>198</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>199</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>200</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>201</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>202</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>203</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>204</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>205</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>206</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>207</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>208</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>209</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>210</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>211</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>212</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>213</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>214</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>215</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>216</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>217</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>218</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>219</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>220</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>221</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>222</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>223</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>224</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>225</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>226</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>227</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>228</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>229</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>230</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>231</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>232</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>233</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>234</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>235</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>236</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>237</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>238</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>239</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>240</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>241</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>242</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>243</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>244</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>245</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>246</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>247</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>248</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>249</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>250</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>251</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>252</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>253</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>254</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>255</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>256</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>257</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>258</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>259</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>260</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>261</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>262</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>263</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>264</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>265</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>266</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>267</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>268</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>269</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>270</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>271</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>272</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>273</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>274</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>275</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>276</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>277</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>278</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>279</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>280</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>281</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>282</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>283</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>284</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>285</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>286</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>287</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>288</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>289</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>290</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>291</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>292</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>293</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>294</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>295</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>296</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>297</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>298</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>299</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>4</v>
       </c>
       <c r="H301">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I301" t="s">
         <v>644</v>
@@ -10588,14 +10588,14 @@
       <selection activeCell="I287" sqref="I287"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
@@ -12567,7 +12567,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>120</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>121</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>122</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>123</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>125</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>126</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>127</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>128</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>129</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>132</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>133</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>134</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>135</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>136</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>137</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>138</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>139</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>140</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>141</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>143</v>
       </c>
@@ -13060,7 +13060,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>144</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>145</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>146</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>147</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>148</v>
       </c>
@@ -13145,7 +13145,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>149</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>150</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>151</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>152</v>
       </c>
@@ -13213,7 +13213,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>153</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>154</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>155</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>156</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>157</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>158</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>159</v>
       </c>
@@ -13332,7 +13332,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>160</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>161</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>162</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>163</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>164</v>
       </c>
@@ -13417,7 +13417,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>165</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>166</v>
       </c>
@@ -13451,7 +13451,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>167</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>168</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>169</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>170</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>171</v>
       </c>
@@ -13536,7 +13536,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>172</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>173</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>174</v>
       </c>
@@ -13587,7 +13587,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>175</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>176</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>177</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>178</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>179</v>
       </c>
@@ -13672,7 +13672,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>180</v>
       </c>
@@ -13689,7 +13689,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>181</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>182</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>183</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>184</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>185</v>
       </c>
@@ -13774,7 +13774,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>186</v>
       </c>
@@ -13791,7 +13791,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>187</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>188</v>
       </c>
@@ -13825,7 +13825,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>189</v>
       </c>
@@ -13842,7 +13842,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>190</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>191</v>
       </c>
@@ -13876,7 +13876,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>192</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>193</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>194</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>195</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>196</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>197</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>198</v>
       </c>
@@ -13995,7 +13995,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>199</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>200</v>
       </c>
@@ -14029,7 +14029,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>201</v>
       </c>
@@ -14046,7 +14046,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>202</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>203</v>
       </c>
@@ -14080,7 +14080,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>204</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>205</v>
       </c>
@@ -14114,7 +14114,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>206</v>
       </c>
@@ -14131,7 +14131,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>207</v>
       </c>
@@ -14148,7 +14148,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>208</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>209</v>
       </c>
@@ -14182,7 +14182,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>210</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>211</v>
       </c>
@@ -14216,7 +14216,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>212</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>213</v>
       </c>
@@ -14250,7 +14250,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>214</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>215</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>216</v>
       </c>
@@ -14301,7 +14301,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>217</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>218</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>219</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>220</v>
       </c>
@@ -14369,7 +14369,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>221</v>
       </c>
@@ -14386,7 +14386,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>222</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>223</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>224</v>
       </c>
@@ -14437,7 +14437,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>225</v>
       </c>
@@ -14454,7 +14454,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>226</v>
       </c>
@@ -14471,7 +14471,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>227</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>228</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>229</v>
       </c>
@@ -14522,7 +14522,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>230</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>231</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>232</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>233</v>
       </c>
@@ -14590,7 +14590,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>234</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>235</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>236</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>237</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>238</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>239</v>
       </c>
@@ -14692,7 +14692,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>240</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>241</v>
       </c>
@@ -14726,7 +14726,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>242</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>243</v>
       </c>
@@ -14760,7 +14760,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>244</v>
       </c>
@@ -14777,7 +14777,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>245</v>
       </c>
@@ -14794,7 +14794,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>246</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>247</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>248</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>249</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>250</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>251</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>252</v>
       </c>
@@ -14913,7 +14913,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>253</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>254</v>
       </c>
@@ -14947,7 +14947,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>255</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>256</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>257</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>258</v>
       </c>
@@ -15015,7 +15015,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>259</v>
       </c>
@@ -15032,7 +15032,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>260</v>
       </c>
@@ -15049,7 +15049,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>261</v>
       </c>
@@ -15066,7 +15066,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>262</v>
       </c>
@@ -15083,7 +15083,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>263</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>264</v>
       </c>
@@ -15117,7 +15117,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>265</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>266</v>
       </c>
@@ -15151,7 +15151,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>267</v>
       </c>
@@ -15168,7 +15168,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>268</v>
       </c>
@@ -15185,7 +15185,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>269</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>270</v>
       </c>
@@ -15219,7 +15219,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>271</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>272</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>273</v>
       </c>
@@ -15270,7 +15270,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>274</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>275</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>276</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>277</v>
       </c>
@@ -15338,7 +15338,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>278</v>
       </c>
@@ -15355,7 +15355,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>279</v>
       </c>
@@ -15372,7 +15372,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>280</v>
       </c>
@@ -15389,7 +15389,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>281</v>
       </c>
@@ -15406,7 +15406,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>282</v>
       </c>
@@ -15423,7 +15423,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>283</v>
       </c>
@@ -15440,7 +15440,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>284</v>
       </c>
@@ -15457,7 +15457,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>286</v>
       </c>
@@ -15474,7 +15474,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>287</v>
       </c>
@@ -15491,7 +15491,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>288</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>289</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>290</v>
       </c>
@@ -15542,7 +15542,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>291</v>
       </c>
@@ -15573,15 +15573,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -15633,7 +15633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -15737,7 +15737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>

--- a/Base/db_backboneConfig_300.xlsx
+++ b/Base/db_backboneConfig_300.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HOUJ\Documents\GitHub\HOLON\Base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilli\Documents\Project HOLON\Git_Local_Clone\HOLON\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBF62CC-AA9B-492F-B7E7-A1E4412D2F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D885F6-06F7-4BF2-A4A0-84D7224DE1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15435" activeTab="3" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -2538,11 +2538,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F79AE7D-6C5C-4EEF-8F2D-727C87414EF2}">
   <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="H301" sqref="H301"/>
+    <sheetView topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -3316,7 +3319,7 @@
         <v>400000</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -10584,8 +10587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F595F011-BCBA-42A0-B2C1-EC2B9C01AA0D}">
   <dimension ref="A1:E292"/>
   <sheetViews>
-    <sheetView topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="I287" sqref="I287"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="E287" sqref="E287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -11051,7 +11054,7 @@
         <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -11068,7 +11071,7 @@
         <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -11170,7 +11173,7 @@
         <v>116</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -11187,7 +11190,7 @@
         <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -11204,7 +11207,7 @@
         <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -11357,7 +11360,7 @@
         <v>127</v>
       </c>
       <c r="E45" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -11476,7 +11479,7 @@
         <v>134</v>
       </c>
       <c r="E52" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -11493,7 +11496,7 @@
         <v>135</v>
       </c>
       <c r="E53" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -11510,7 +11513,7 @@
         <v>136</v>
       </c>
       <c r="E54" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -11663,7 +11666,7 @@
         <v>145</v>
       </c>
       <c r="E63" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -11782,7 +11785,7 @@
         <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -11799,7 +11802,7 @@
         <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -11816,7 +11819,7 @@
         <v>154</v>
       </c>
       <c r="E72" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -11969,7 +11972,7 @@
         <v>163</v>
       </c>
       <c r="E81" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -12088,7 +12091,7 @@
         <v>170</v>
       </c>
       <c r="E88" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -12105,7 +12108,7 @@
         <v>171</v>
       </c>
       <c r="E89" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -12122,7 +12125,7 @@
         <v>172</v>
       </c>
       <c r="E90" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -12275,7 +12278,7 @@
         <v>181</v>
       </c>
       <c r="E99" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -12394,7 +12397,7 @@
         <v>188</v>
       </c>
       <c r="E106" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -12411,7 +12414,7 @@
         <v>271</v>
       </c>
       <c r="E107" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -12462,7 +12465,7 @@
         <v>275</v>
       </c>
       <c r="E110" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -12581,7 +12584,7 @@
         <v>282</v>
       </c>
       <c r="E117" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -12598,7 +12601,7 @@
         <v>283</v>
       </c>
       <c r="E118" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -12615,7 +12618,7 @@
         <v>284</v>
       </c>
       <c r="E119" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -12768,7 +12771,7 @@
         <v>293</v>
       </c>
       <c r="E128" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -12887,7 +12890,7 @@
         <v>300</v>
       </c>
       <c r="E135" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -12904,7 +12907,7 @@
         <v>301</v>
       </c>
       <c r="E136" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -12921,7 +12924,7 @@
         <v>302</v>
       </c>
       <c r="E137" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -13074,7 +13077,7 @@
         <v>311</v>
       </c>
       <c r="E146" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -13193,7 +13196,7 @@
         <v>318</v>
       </c>
       <c r="E153" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -13210,7 +13213,7 @@
         <v>319</v>
       </c>
       <c r="E154" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -13227,7 +13230,7 @@
         <v>320</v>
       </c>
       <c r="E155" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -13380,7 +13383,7 @@
         <v>329</v>
       </c>
       <c r="E164" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -13499,7 +13502,7 @@
         <v>336</v>
       </c>
       <c r="E171" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -13516,7 +13519,7 @@
         <v>337</v>
       </c>
       <c r="E172" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -13533,7 +13536,7 @@
         <v>338</v>
       </c>
       <c r="E173" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -13686,7 +13689,7 @@
         <v>347</v>
       </c>
       <c r="E182" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -13805,7 +13808,7 @@
         <v>354</v>
       </c>
       <c r="E189" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -13822,7 +13825,7 @@
         <v>355</v>
       </c>
       <c r="E190" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -13873,7 +13876,7 @@
         <v>547</v>
       </c>
       <c r="E193" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -13890,7 +13893,7 @@
         <v>548</v>
       </c>
       <c r="E194" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -13992,7 +13995,7 @@
         <v>554</v>
       </c>
       <c r="E200" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -14009,7 +14012,7 @@
         <v>555</v>
       </c>
       <c r="E201" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -14026,7 +14029,7 @@
         <v>556</v>
       </c>
       <c r="E202" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -14179,7 +14182,7 @@
         <v>569</v>
       </c>
       <c r="E211" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -14298,7 +14301,7 @@
         <v>576</v>
       </c>
       <c r="E218" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -14315,7 +14318,7 @@
         <v>577</v>
       </c>
       <c r="E219" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -14332,7 +14335,7 @@
         <v>578</v>
       </c>
       <c r="E220" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -14485,7 +14488,7 @@
         <v>587</v>
       </c>
       <c r="E229" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -14604,7 +14607,7 @@
         <v>594</v>
       </c>
       <c r="E236" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -14621,7 +14624,7 @@
         <v>595</v>
       </c>
       <c r="E237" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -14638,7 +14641,7 @@
         <v>596</v>
       </c>
       <c r="E238" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -14791,7 +14794,7 @@
         <v>605</v>
       </c>
       <c r="E247" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -14910,7 +14913,7 @@
         <v>612</v>
       </c>
       <c r="E254" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -14927,7 +14930,7 @@
         <v>613</v>
       </c>
       <c r="E255" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -14944,7 +14947,7 @@
         <v>614</v>
       </c>
       <c r="E256" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -15097,7 +15100,7 @@
         <v>623</v>
       </c>
       <c r="E265" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -15216,7 +15219,7 @@
         <v>630</v>
       </c>
       <c r="E272" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -15233,7 +15236,7 @@
         <v>631</v>
       </c>
       <c r="E273" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -15250,7 +15253,7 @@
         <v>632</v>
       </c>
       <c r="E274" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -15301,7 +15304,7 @@
         <v>635</v>
       </c>
       <c r="E277" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -15403,7 +15406,7 @@
         <v>641</v>
       </c>
       <c r="E283" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">

--- a/Base/db_backboneConfig_300.xlsx
+++ b/Base/db_backboneConfig_300.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilli\Documents\Project HOLON\Git_Local_Clone\HOLON\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D885F6-06F7-4BF2-A4A0-84D7224DE1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D9E550-D76B-454A-8341-881DA9EE108B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15435" activeTab="3" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="19320" activeTab="2" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3113" uniqueCount="644">
   <si>
     <t>id</t>
   </si>
@@ -1437,9 +1437,6 @@
   </si>
   <si>
     <t>b221</t>
-  </si>
-  <si>
-    <t>b222</t>
   </si>
   <si>
     <t>b223</t>
@@ -2536,14 +2533,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F79AE7D-6C5C-4EEF-8F2D-727C87414EF2}">
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:I300"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A301" sqref="A301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7775,7 +7773,7 @@
         <v>11</v>
       </c>
       <c r="I196" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -7801,7 +7799,7 @@
         <v>11</v>
       </c>
       <c r="I197" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -7830,7 +7828,7 @@
         <v>11</v>
       </c>
       <c r="I198" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -7856,7 +7854,7 @@
         <v>11</v>
       </c>
       <c r="I199" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -7882,7 +7880,7 @@
         <v>11</v>
       </c>
       <c r="I200" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -7908,7 +7906,7 @@
         <v>11</v>
       </c>
       <c r="I201" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -7934,7 +7932,7 @@
         <v>11</v>
       </c>
       <c r="I202" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -7960,7 +7958,7 @@
         <v>11</v>
       </c>
       <c r="I203" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -7986,7 +7984,7 @@
         <v>11</v>
       </c>
       <c r="I204" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -8015,7 +8013,7 @@
         <v>11</v>
       </c>
       <c r="I205" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -8044,7 +8042,7 @@
         <v>11</v>
       </c>
       <c r="I206" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -8073,7 +8071,7 @@
         <v>11</v>
       </c>
       <c r="I207" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -8099,7 +8097,7 @@
         <v>11</v>
       </c>
       <c r="I208" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -8125,7 +8123,7 @@
         <v>11</v>
       </c>
       <c r="I209" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -8151,7 +8149,7 @@
         <v>11</v>
       </c>
       <c r="I210" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -8177,7 +8175,7 @@
         <v>11</v>
       </c>
       <c r="I211" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -8203,7 +8201,7 @@
         <v>11</v>
       </c>
       <c r="I212" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -8229,7 +8227,7 @@
         <v>11</v>
       </c>
       <c r="I213" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -8258,7 +8256,7 @@
         <v>50</v>
       </c>
       <c r="I214" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -8284,7 +8282,7 @@
         <v>50</v>
       </c>
       <c r="I215" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -8310,7 +8308,7 @@
         <v>50</v>
       </c>
       <c r="I216" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -8336,7 +8334,7 @@
         <v>50</v>
       </c>
       <c r="I217" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -8362,7 +8360,7 @@
         <v>50</v>
       </c>
       <c r="I218" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -8388,7 +8386,7 @@
         <v>50</v>
       </c>
       <c r="I219" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -8480,22 +8478,19 @@
         <v>466</v>
       </c>
       <c r="D223" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E223" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="F223" t="s">
         <v>3</v>
       </c>
-      <c r="G223" t="s">
-        <v>5</v>
-      </c>
       <c r="H223">
-        <v>400000</v>
+        <v>11</v>
       </c>
       <c r="I223" t="s">
-        <v>95</v>
+        <v>566</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -8512,7 +8507,7 @@
         <v>54</v>
       </c>
       <c r="E224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F224" t="s">
         <v>3</v>
@@ -8538,10 +8533,13 @@
         <v>54</v>
       </c>
       <c r="E225" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F225" t="s">
         <v>3</v>
+      </c>
+      <c r="G225" t="s">
+        <v>5</v>
       </c>
       <c r="H225">
         <v>11</v>
@@ -8564,13 +8562,10 @@
         <v>54</v>
       </c>
       <c r="E226" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F226" t="s">
-        <v>3</v>
-      </c>
-      <c r="G226" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H226">
         <v>11</v>
@@ -8593,7 +8588,7 @@
         <v>54</v>
       </c>
       <c r="E227" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F227" t="s">
         <v>4</v>
@@ -8619,7 +8614,7 @@
         <v>54</v>
       </c>
       <c r="E228" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F228" t="s">
         <v>4</v>
@@ -8648,7 +8643,7 @@
         <v>59</v>
       </c>
       <c r="F229" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H229">
         <v>11</v>
@@ -8671,7 +8666,7 @@
         <v>54</v>
       </c>
       <c r="E230" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F230" t="s">
         <v>6</v>
@@ -8726,7 +8721,10 @@
         <v>58</v>
       </c>
       <c r="F232" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="G232" t="s">
+        <v>5</v>
       </c>
       <c r="H232">
         <v>11</v>
@@ -8749,7 +8747,7 @@
         <v>54</v>
       </c>
       <c r="E233" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F233" t="s">
         <v>3</v>
@@ -8778,7 +8776,7 @@
         <v>54</v>
       </c>
       <c r="E234" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F234" t="s">
         <v>3</v>
@@ -8807,13 +8805,10 @@
         <v>54</v>
       </c>
       <c r="E235" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F235" t="s">
-        <v>3</v>
-      </c>
-      <c r="G235" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H235">
         <v>11</v>
@@ -8836,7 +8831,7 @@
         <v>54</v>
       </c>
       <c r="E236" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F236" t="s">
         <v>4</v>
@@ -8862,7 +8857,7 @@
         <v>54</v>
       </c>
       <c r="E237" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F237" t="s">
         <v>4</v>
@@ -8891,7 +8886,7 @@
         <v>59</v>
       </c>
       <c r="F238" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H238">
         <v>11</v>
@@ -8914,7 +8909,7 @@
         <v>54</v>
       </c>
       <c r="E239" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F239" t="s">
         <v>6</v>
@@ -8969,7 +8964,7 @@
         <v>58</v>
       </c>
       <c r="F241" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H241">
         <v>11</v>
@@ -8992,7 +8987,7 @@
         <v>54</v>
       </c>
       <c r="E242" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F242" t="s">
         <v>3</v>
@@ -9018,10 +9013,13 @@
         <v>54</v>
       </c>
       <c r="E243" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F243" t="s">
         <v>3</v>
+      </c>
+      <c r="G243" t="s">
+        <v>5</v>
       </c>
       <c r="H243">
         <v>11</v>
@@ -9044,13 +9042,10 @@
         <v>54</v>
       </c>
       <c r="E244" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F244" t="s">
-        <v>3</v>
-      </c>
-      <c r="G244" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H244">
         <v>11</v>
@@ -9073,7 +9068,7 @@
         <v>54</v>
       </c>
       <c r="E245" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F245" t="s">
         <v>4</v>
@@ -9099,7 +9094,7 @@
         <v>54</v>
       </c>
       <c r="E246" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F246" t="s">
         <v>4</v>
@@ -9128,7 +9123,7 @@
         <v>59</v>
       </c>
       <c r="F247" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H247">
         <v>11</v>
@@ -9151,7 +9146,7 @@
         <v>54</v>
       </c>
       <c r="E248" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F248" t="s">
         <v>6</v>
@@ -9206,7 +9201,10 @@
         <v>58</v>
       </c>
       <c r="F250" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="G250" t="s">
+        <v>5</v>
       </c>
       <c r="H250">
         <v>11</v>
@@ -9229,7 +9227,7 @@
         <v>54</v>
       </c>
       <c r="E251" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F251" t="s">
         <v>3</v>
@@ -9258,7 +9256,7 @@
         <v>54</v>
       </c>
       <c r="E252" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F252" t="s">
         <v>3</v>
@@ -9287,13 +9285,10 @@
         <v>54</v>
       </c>
       <c r="E253" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F253" t="s">
-        <v>3</v>
-      </c>
-      <c r="G253" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H253">
         <v>11</v>
@@ -9316,7 +9311,7 @@
         <v>54</v>
       </c>
       <c r="E254" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F254" t="s">
         <v>4</v>
@@ -9342,7 +9337,7 @@
         <v>54</v>
       </c>
       <c r="E255" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F255" t="s">
         <v>4</v>
@@ -9371,7 +9366,7 @@
         <v>59</v>
       </c>
       <c r="F256" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H256">
         <v>11</v>
@@ -9394,7 +9389,7 @@
         <v>54</v>
       </c>
       <c r="E257" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F257" t="s">
         <v>6</v>
@@ -9449,7 +9444,7 @@
         <v>58</v>
       </c>
       <c r="F259" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H259">
         <v>11</v>
@@ -9472,7 +9467,7 @@
         <v>54</v>
       </c>
       <c r="E260" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F260" t="s">
         <v>3</v>
@@ -9498,10 +9493,13 @@
         <v>54</v>
       </c>
       <c r="E261" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F261" t="s">
         <v>3</v>
+      </c>
+      <c r="G261" t="s">
+        <v>5</v>
       </c>
       <c r="H261">
         <v>11</v>
@@ -9524,13 +9522,10 @@
         <v>54</v>
       </c>
       <c r="E262" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F262" t="s">
-        <v>3</v>
-      </c>
-      <c r="G262" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H262">
         <v>11</v>
@@ -9553,7 +9548,7 @@
         <v>54</v>
       </c>
       <c r="E263" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F263" t="s">
         <v>4</v>
@@ -9579,7 +9574,7 @@
         <v>54</v>
       </c>
       <c r="E264" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F264" t="s">
         <v>4</v>
@@ -9608,7 +9603,7 @@
         <v>59</v>
       </c>
       <c r="F265" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H265">
         <v>11</v>
@@ -9631,7 +9626,7 @@
         <v>54</v>
       </c>
       <c r="E266" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F266" t="s">
         <v>6</v>
@@ -9686,7 +9681,10 @@
         <v>58</v>
       </c>
       <c r="F268" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="G268" t="s">
+        <v>5</v>
       </c>
       <c r="H268">
         <v>11</v>
@@ -9709,7 +9707,7 @@
         <v>54</v>
       </c>
       <c r="E269" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F269" t="s">
         <v>3</v>
@@ -9738,7 +9736,7 @@
         <v>54</v>
       </c>
       <c r="E270" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F270" t="s">
         <v>3</v>
@@ -9767,13 +9765,10 @@
         <v>54</v>
       </c>
       <c r="E271" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F271" t="s">
-        <v>3</v>
-      </c>
-      <c r="G271" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H271">
         <v>11</v>
@@ -9796,7 +9791,7 @@
         <v>54</v>
       </c>
       <c r="E272" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F272" t="s">
         <v>4</v>
@@ -9822,7 +9817,7 @@
         <v>54</v>
       </c>
       <c r="E273" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F273" t="s">
         <v>4</v>
@@ -9851,7 +9846,7 @@
         <v>59</v>
       </c>
       <c r="F274" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H274">
         <v>11</v>
@@ -9874,7 +9869,7 @@
         <v>54</v>
       </c>
       <c r="E275" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F275" t="s">
         <v>6</v>
@@ -9929,7 +9924,7 @@
         <v>58</v>
       </c>
       <c r="F277" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H277">
         <v>11</v>
@@ -9952,7 +9947,7 @@
         <v>54</v>
       </c>
       <c r="E278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F278" t="s">
         <v>3</v>
@@ -9978,10 +9973,13 @@
         <v>54</v>
       </c>
       <c r="E279" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F279" t="s">
         <v>3</v>
+      </c>
+      <c r="G279" t="s">
+        <v>5</v>
       </c>
       <c r="H279">
         <v>11</v>
@@ -10004,13 +10002,10 @@
         <v>54</v>
       </c>
       <c r="E280" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F280" t="s">
-        <v>3</v>
-      </c>
-      <c r="G280" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H280">
         <v>11</v>
@@ -10033,7 +10028,7 @@
         <v>54</v>
       </c>
       <c r="E281" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F281" t="s">
         <v>4</v>
@@ -10059,7 +10054,7 @@
         <v>54</v>
       </c>
       <c r="E282" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F282" t="s">
         <v>4</v>
@@ -10088,7 +10083,7 @@
         <v>59</v>
       </c>
       <c r="F283" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H283">
         <v>11</v>
@@ -10111,7 +10106,7 @@
         <v>54</v>
       </c>
       <c r="E284" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F284" t="s">
         <v>6</v>
@@ -10166,7 +10161,10 @@
         <v>58</v>
       </c>
       <c r="F286" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="G286" t="s">
+        <v>5</v>
       </c>
       <c r="H286">
         <v>11</v>
@@ -10189,7 +10187,7 @@
         <v>54</v>
       </c>
       <c r="E287" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F287" t="s">
         <v>3</v>
@@ -10218,7 +10216,7 @@
         <v>54</v>
       </c>
       <c r="E288" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F288" t="s">
         <v>3</v>
@@ -10247,13 +10245,10 @@
         <v>54</v>
       </c>
       <c r="E289" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F289" t="s">
-        <v>3</v>
-      </c>
-      <c r="G289" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H289">
         <v>11</v>
@@ -10276,7 +10271,7 @@
         <v>54</v>
       </c>
       <c r="E290" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F290" t="s">
         <v>4</v>
@@ -10302,7 +10297,7 @@
         <v>54</v>
       </c>
       <c r="E291" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F291" t="s">
         <v>4</v>
@@ -10331,7 +10326,7 @@
         <v>59</v>
       </c>
       <c r="F292" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H292">
         <v>11</v>
@@ -10354,7 +10349,7 @@
         <v>54</v>
       </c>
       <c r="E293" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F293" t="s">
         <v>6</v>
@@ -10409,7 +10404,7 @@
         <v>58</v>
       </c>
       <c r="F295" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H295">
         <v>11</v>
@@ -10432,7 +10427,7 @@
         <v>54</v>
       </c>
       <c r="E296" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F296" t="s">
         <v>3</v>
@@ -10458,10 +10453,13 @@
         <v>54</v>
       </c>
       <c r="E297" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F297" t="s">
         <v>3</v>
+      </c>
+      <c r="G297" t="s">
+        <v>5</v>
       </c>
       <c r="H297">
         <v>11</v>
@@ -10484,13 +10482,10 @@
         <v>54</v>
       </c>
       <c r="E298" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F298" t="s">
-        <v>3</v>
-      </c>
-      <c r="G298" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H298">
         <v>11</v>
@@ -10513,7 +10508,7 @@
         <v>54</v>
       </c>
       <c r="E299" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F299" t="s">
         <v>4</v>
@@ -10539,7 +10534,7 @@
         <v>54</v>
       </c>
       <c r="E300" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F300" t="s">
         <v>4</v>
@@ -10549,32 +10544,6 @@
       </c>
       <c r="I300" t="s">
         <v>643</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A301">
-        <v>299</v>
-      </c>
-      <c r="B301" t="s">
-        <v>49</v>
-      </c>
-      <c r="C301" t="s">
-        <v>544</v>
-      </c>
-      <c r="D301" t="s">
-        <v>54</v>
-      </c>
-      <c r="E301" t="s">
-        <v>59</v>
-      </c>
-      <c r="F301" t="s">
-        <v>4</v>
-      </c>
-      <c r="H301">
-        <v>11</v>
-      </c>
-      <c r="I301" t="s">
-        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -10587,7 +10556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F595F011-BCBA-42A0-B2C1-EC2B9C01AA0D}">
   <dimension ref="A1:E292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+    <sheetView topLeftCell="A229" workbookViewId="0">
       <selection activeCell="E287" sqref="E287"/>
     </sheetView>
   </sheetViews>
@@ -13839,7 +13808,7 @@
         <v>104</v>
       </c>
       <c r="D191" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E191" t="s">
         <v>94</v>
@@ -13856,7 +13825,7 @@
         <v>104</v>
       </c>
       <c r="D192" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E192" t="s">
         <v>94</v>
@@ -13873,7 +13842,7 @@
         <v>104</v>
       </c>
       <c r="D193" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E193" t="s">
         <v>99</v>
@@ -13890,7 +13859,7 @@
         <v>104</v>
       </c>
       <c r="D194" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E194" t="s">
         <v>94</v>
@@ -13907,7 +13876,7 @@
         <v>104</v>
       </c>
       <c r="D195" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E195" t="s">
         <v>94</v>
@@ -13924,7 +13893,7 @@
         <v>104</v>
       </c>
       <c r="D196" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E196" t="s">
         <v>94</v>
@@ -13941,7 +13910,7 @@
         <v>104</v>
       </c>
       <c r="D197" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E197" t="s">
         <v>94</v>
@@ -13958,7 +13927,7 @@
         <v>104</v>
       </c>
       <c r="D198" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E198" t="s">
         <v>94</v>
@@ -13975,7 +13944,7 @@
         <v>104</v>
       </c>
       <c r="D199" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E199" t="s">
         <v>94</v>
@@ -13992,7 +13961,7 @@
         <v>104</v>
       </c>
       <c r="D200" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E200" t="s">
         <v>99</v>
@@ -14009,7 +13978,7 @@
         <v>104</v>
       </c>
       <c r="D201" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E201" t="s">
         <v>99</v>
@@ -14026,7 +13995,7 @@
         <v>104</v>
       </c>
       <c r="D202" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E202" t="s">
         <v>99</v>
@@ -14043,7 +14012,7 @@
         <v>104</v>
       </c>
       <c r="D203" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E203" t="s">
         <v>94</v>
@@ -14060,7 +14029,7 @@
         <v>104</v>
       </c>
       <c r="D204" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E204" t="s">
         <v>94</v>
@@ -14077,7 +14046,7 @@
         <v>104</v>
       </c>
       <c r="D205" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E205" t="s">
         <v>94</v>
@@ -14094,7 +14063,7 @@
         <v>104</v>
       </c>
       <c r="D206" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E206" t="s">
         <v>94</v>
@@ -14111,7 +14080,7 @@
         <v>104</v>
       </c>
       <c r="D207" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E207" t="s">
         <v>94</v>
@@ -14128,7 +14097,7 @@
         <v>104</v>
       </c>
       <c r="D208" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E208" t="s">
         <v>94</v>
@@ -14145,7 +14114,7 @@
         <v>104</v>
       </c>
       <c r="D209" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E209" t="s">
         <v>94</v>
@@ -14162,7 +14131,7 @@
         <v>104</v>
       </c>
       <c r="D210" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E210" t="s">
         <v>94</v>
@@ -14179,7 +14148,7 @@
         <v>104</v>
       </c>
       <c r="D211" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E211" t="s">
         <v>99</v>
@@ -14196,7 +14165,7 @@
         <v>104</v>
       </c>
       <c r="D212" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E212" t="s">
         <v>94</v>
@@ -14213,7 +14182,7 @@
         <v>104</v>
       </c>
       <c r="D213" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E213" t="s">
         <v>94</v>
@@ -14230,7 +14199,7 @@
         <v>104</v>
       </c>
       <c r="D214" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E214" t="s">
         <v>94</v>
@@ -14247,7 +14216,7 @@
         <v>104</v>
       </c>
       <c r="D215" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E215" t="s">
         <v>94</v>
@@ -14264,7 +14233,7 @@
         <v>104</v>
       </c>
       <c r="D216" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E216" t="s">
         <v>94</v>
@@ -14281,7 +14250,7 @@
         <v>104</v>
       </c>
       <c r="D217" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E217" t="s">
         <v>94</v>
@@ -14298,7 +14267,7 @@
         <v>104</v>
       </c>
       <c r="D218" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E218" t="s">
         <v>99</v>
@@ -14315,7 +14284,7 @@
         <v>104</v>
       </c>
       <c r="D219" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E219" t="s">
         <v>99</v>
@@ -14332,7 +14301,7 @@
         <v>104</v>
       </c>
       <c r="D220" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E220" t="s">
         <v>99</v>
@@ -14349,7 +14318,7 @@
         <v>104</v>
       </c>
       <c r="D221" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E221" t="s">
         <v>94</v>
@@ -14366,7 +14335,7 @@
         <v>104</v>
       </c>
       <c r="D222" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E222" t="s">
         <v>94</v>
@@ -14383,7 +14352,7 @@
         <v>104</v>
       </c>
       <c r="D223" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E223" t="s">
         <v>94</v>
@@ -14400,7 +14369,7 @@
         <v>104</v>
       </c>
       <c r="D224" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E224" t="s">
         <v>94</v>
@@ -14417,7 +14386,7 @@
         <v>104</v>
       </c>
       <c r="D225" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E225" t="s">
         <v>94</v>
@@ -14434,7 +14403,7 @@
         <v>104</v>
       </c>
       <c r="D226" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E226" t="s">
         <v>94</v>
@@ -14451,7 +14420,7 @@
         <v>104</v>
       </c>
       <c r="D227" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E227" t="s">
         <v>94</v>
@@ -14468,7 +14437,7 @@
         <v>104</v>
       </c>
       <c r="D228" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E228" t="s">
         <v>94</v>
@@ -14485,7 +14454,7 @@
         <v>104</v>
       </c>
       <c r="D229" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E229" t="s">
         <v>99</v>
@@ -14502,7 +14471,7 @@
         <v>104</v>
       </c>
       <c r="D230" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E230" t="s">
         <v>94</v>
@@ -14519,7 +14488,7 @@
         <v>104</v>
       </c>
       <c r="D231" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E231" t="s">
         <v>94</v>
@@ -14536,7 +14505,7 @@
         <v>104</v>
       </c>
       <c r="D232" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E232" t="s">
         <v>94</v>
@@ -14553,7 +14522,7 @@
         <v>104</v>
       </c>
       <c r="D233" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E233" t="s">
         <v>94</v>
@@ -14570,7 +14539,7 @@
         <v>104</v>
       </c>
       <c r="D234" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E234" t="s">
         <v>94</v>
@@ -14587,7 +14556,7 @@
         <v>104</v>
       </c>
       <c r="D235" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E235" t="s">
         <v>94</v>
@@ -14604,7 +14573,7 @@
         <v>104</v>
       </c>
       <c r="D236" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E236" t="s">
         <v>99</v>
@@ -14621,7 +14590,7 @@
         <v>104</v>
       </c>
       <c r="D237" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E237" t="s">
         <v>99</v>
@@ -14638,7 +14607,7 @@
         <v>104</v>
       </c>
       <c r="D238" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E238" t="s">
         <v>99</v>
@@ -14655,7 +14624,7 @@
         <v>104</v>
       </c>
       <c r="D239" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E239" t="s">
         <v>94</v>
@@ -14672,7 +14641,7 @@
         <v>104</v>
       </c>
       <c r="D240" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E240" t="s">
         <v>94</v>
@@ -14689,7 +14658,7 @@
         <v>104</v>
       </c>
       <c r="D241" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E241" t="s">
         <v>94</v>
@@ -14706,7 +14675,7 @@
         <v>104</v>
       </c>
       <c r="D242" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E242" t="s">
         <v>94</v>
@@ -14723,7 +14692,7 @@
         <v>104</v>
       </c>
       <c r="D243" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E243" t="s">
         <v>94</v>
@@ -14740,7 +14709,7 @@
         <v>104</v>
       </c>
       <c r="D244" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E244" t="s">
         <v>94</v>
@@ -14757,7 +14726,7 @@
         <v>104</v>
       </c>
       <c r="D245" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E245" t="s">
         <v>94</v>
@@ -14774,7 +14743,7 @@
         <v>104</v>
       </c>
       <c r="D246" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E246" t="s">
         <v>95</v>
@@ -14791,7 +14760,7 @@
         <v>104</v>
       </c>
       <c r="D247" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E247" t="s">
         <v>99</v>
@@ -14808,7 +14777,7 @@
         <v>104</v>
       </c>
       <c r="D248" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E248" t="s">
         <v>95</v>
@@ -14825,7 +14794,7 @@
         <v>104</v>
       </c>
       <c r="D249" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E249" t="s">
         <v>95</v>
@@ -14842,7 +14811,7 @@
         <v>104</v>
       </c>
       <c r="D250" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E250" t="s">
         <v>95</v>
@@ -14859,7 +14828,7 @@
         <v>104</v>
       </c>
       <c r="D251" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E251" t="s">
         <v>95</v>
@@ -14876,7 +14845,7 @@
         <v>104</v>
       </c>
       <c r="D252" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E252" t="s">
         <v>95</v>
@@ -14893,7 +14862,7 @@
         <v>104</v>
       </c>
       <c r="D253" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E253" t="s">
         <v>95</v>
@@ -14910,7 +14879,7 @@
         <v>104</v>
       </c>
       <c r="D254" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E254" t="s">
         <v>99</v>
@@ -14927,7 +14896,7 @@
         <v>104</v>
       </c>
       <c r="D255" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E255" t="s">
         <v>99</v>
@@ -14944,7 +14913,7 @@
         <v>104</v>
       </c>
       <c r="D256" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E256" t="s">
         <v>99</v>
@@ -14961,7 +14930,7 @@
         <v>104</v>
       </c>
       <c r="D257" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E257" t="s">
         <v>95</v>
@@ -14978,7 +14947,7 @@
         <v>104</v>
       </c>
       <c r="D258" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E258" t="s">
         <v>95</v>
@@ -14995,7 +14964,7 @@
         <v>104</v>
       </c>
       <c r="D259" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E259" t="s">
         <v>95</v>
@@ -15012,7 +14981,7 @@
         <v>104</v>
       </c>
       <c r="D260" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E260" t="s">
         <v>95</v>
@@ -15029,7 +14998,7 @@
         <v>104</v>
       </c>
       <c r="D261" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E261" t="s">
         <v>95</v>
@@ -15046,7 +15015,7 @@
         <v>104</v>
       </c>
       <c r="D262" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E262" t="s">
         <v>95</v>
@@ -15063,7 +15032,7 @@
         <v>104</v>
       </c>
       <c r="D263" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E263" t="s">
         <v>95</v>
@@ -15080,7 +15049,7 @@
         <v>104</v>
       </c>
       <c r="D264" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E264" t="s">
         <v>95</v>
@@ -15097,7 +15066,7 @@
         <v>104</v>
       </c>
       <c r="D265" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E265" t="s">
         <v>99</v>
@@ -15114,7 +15083,7 @@
         <v>104</v>
       </c>
       <c r="D266" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E266" t="s">
         <v>95</v>
@@ -15131,7 +15100,7 @@
         <v>104</v>
       </c>
       <c r="D267" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E267" t="s">
         <v>95</v>
@@ -15148,7 +15117,7 @@
         <v>104</v>
       </c>
       <c r="D268" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E268" t="s">
         <v>95</v>
@@ -15165,7 +15134,7 @@
         <v>104</v>
       </c>
       <c r="D269" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E269" t="s">
         <v>95</v>
@@ -15182,7 +15151,7 @@
         <v>104</v>
       </c>
       <c r="D270" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E270" t="s">
         <v>95</v>
@@ -15199,7 +15168,7 @@
         <v>104</v>
       </c>
       <c r="D271" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E271" t="s">
         <v>95</v>
@@ -15216,7 +15185,7 @@
         <v>104</v>
       </c>
       <c r="D272" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E272" t="s">
         <v>99</v>
@@ -15233,7 +15202,7 @@
         <v>104</v>
       </c>
       <c r="D273" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E273" t="s">
         <v>99</v>
@@ -15250,7 +15219,7 @@
         <v>104</v>
       </c>
       <c r="D274" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E274" t="s">
         <v>99</v>
@@ -15267,7 +15236,7 @@
         <v>104</v>
       </c>
       <c r="D275" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E275" t="s">
         <v>94</v>
@@ -15284,7 +15253,7 @@
         <v>104</v>
       </c>
       <c r="D276" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E276" t="s">
         <v>94</v>
@@ -15301,7 +15270,7 @@
         <v>104</v>
       </c>
       <c r="D277" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E277" t="s">
         <v>94</v>
@@ -15318,7 +15287,7 @@
         <v>104</v>
       </c>
       <c r="D278" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E278" t="s">
         <v>94</v>
@@ -15335,7 +15304,7 @@
         <v>104</v>
       </c>
       <c r="D279" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E279" t="s">
         <v>94</v>
@@ -15352,7 +15321,7 @@
         <v>104</v>
       </c>
       <c r="D280" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E280" t="s">
         <v>94</v>
@@ -15369,7 +15338,7 @@
         <v>104</v>
       </c>
       <c r="D281" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E281" t="s">
         <v>94</v>
@@ -15386,7 +15355,7 @@
         <v>104</v>
       </c>
       <c r="D282" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E282" t="s">
         <v>94</v>
@@ -15403,7 +15372,7 @@
         <v>104</v>
       </c>
       <c r="D283" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E283" t="s">
         <v>99</v>
@@ -15420,7 +15389,7 @@
         <v>104</v>
       </c>
       <c r="D284" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E284" t="s">
         <v>94</v>
@@ -15437,7 +15406,7 @@
         <v>104</v>
       </c>
       <c r="D285" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E285" t="s">
         <v>94</v>
@@ -15454,7 +15423,7 @@
         <v>104</v>
       </c>
       <c r="D286" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E286" t="s">
         <v>94</v>
@@ -15505,7 +15474,7 @@
         <v>104</v>
       </c>
       <c r="D289" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E289" t="s">
         <v>94</v>
@@ -15522,7 +15491,7 @@
         <v>104</v>
       </c>
       <c r="D290" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E290" t="s">
         <v>94</v>
@@ -15539,7 +15508,7 @@
         <v>104</v>
       </c>
       <c r="D291" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E291" t="s">
         <v>94</v>
@@ -15556,7 +15525,7 @@
         <v>104</v>
       </c>
       <c r="D292" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E292" t="s">
         <v>94</v>

--- a/Base/db_backboneConfig_300.xlsx
+++ b/Base/db_backboneConfig_300.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HOUJ\Documents\GitHub\HOLON\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBF62CC-AA9B-492F-B7E7-A1E4412D2F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5C1DCA-C7C2-4B05-8429-361565693FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="649">
   <si>
     <t>id</t>
   </si>
@@ -1974,6 +1974,18 @@
   </si>
   <si>
     <t>hh280</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>o1</t>
+  </si>
+  <si>
+    <t>gridoperator</t>
+  </si>
+  <si>
+    <t>GRIDOPERATOR</t>
   </si>
 </sst>
 </file>
@@ -2385,10 +2397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243F788D-3AF5-439A-A91F-12D1BED9A308}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2397,7 +2409,7 @@
     <col min="4" max="4" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2419,8 +2431,11 @@
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2442,8 +2457,11 @@
       <c r="G2" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2465,8 +2483,11 @@
       <c r="G3" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2488,8 +2509,11 @@
       <c r="G4" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2508,8 +2532,11 @@
       <c r="G5" s="1">
         <v>500000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2538,8 +2565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F79AE7D-6C5C-4EEF-8F2D-727C87414EF2}">
   <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="H301" sqref="H301"/>
+    <sheetView topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="M290" sqref="M290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -10582,10 +10609,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F595F011-BCBA-42A0-B2C1-EC2B9C01AA0D}">
-  <dimension ref="A1:E292"/>
+  <dimension ref="A1:E293"/>
   <sheetViews>
-    <sheetView topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="I287" sqref="I287"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="G286" sqref="G286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -11008,16 +11035,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>647</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>648</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" t="s">
-        <v>94</v>
+        <v>646</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -11031,7 +11055,7 @@
         <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" t="s">
         <v>94</v>
@@ -11048,7 +11072,7 @@
         <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" t="s">
         <v>94</v>
@@ -11065,10 +11089,10 @@
         <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -11082,10 +11106,10 @@
         <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -11099,7 +11123,7 @@
         <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
         <v>94</v>
@@ -11116,7 +11140,7 @@
         <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>94</v>
@@ -11133,7 +11157,7 @@
         <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>94</v>
@@ -11150,7 +11174,7 @@
         <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
         <v>94</v>
@@ -11167,7 +11191,7 @@
         <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
         <v>94</v>
@@ -11184,7 +11208,7 @@
         <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E35" t="s">
         <v>94</v>
@@ -11201,7 +11225,7 @@
         <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
         <v>94</v>
@@ -11218,7 +11242,7 @@
         <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E37" t="s">
         <v>94</v>
@@ -11235,7 +11259,7 @@
         <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E38" t="s">
         <v>94</v>
@@ -11252,7 +11276,7 @@
         <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
         <v>94</v>
@@ -11269,7 +11293,7 @@
         <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E40" t="s">
         <v>94</v>
@@ -11286,7 +11310,7 @@
         <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
         <v>94</v>
@@ -11303,7 +11327,7 @@
         <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E42" t="s">
         <v>94</v>
@@ -11320,7 +11344,7 @@
         <v>104</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E43" t="s">
         <v>94</v>
@@ -11337,7 +11361,7 @@
         <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E44" t="s">
         <v>94</v>
@@ -11354,7 +11378,7 @@
         <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
         <v>94</v>
@@ -11371,7 +11395,7 @@
         <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E46" t="s">
         <v>94</v>
@@ -11388,7 +11412,7 @@
         <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E47" t="s">
         <v>94</v>
@@ -11405,7 +11429,7 @@
         <v>104</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E48" t="s">
         <v>94</v>
@@ -11422,7 +11446,7 @@
         <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E49" t="s">
         <v>94</v>
@@ -11439,7 +11463,7 @@
         <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
         <v>94</v>
@@ -11456,7 +11480,7 @@
         <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
         <v>94</v>
@@ -11473,7 +11497,7 @@
         <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E52" t="s">
         <v>94</v>
@@ -11490,7 +11514,7 @@
         <v>104</v>
       </c>
       <c r="D53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E53" t="s">
         <v>94</v>
@@ -11507,7 +11531,7 @@
         <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E54" t="s">
         <v>94</v>
@@ -11524,7 +11548,7 @@
         <v>104</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E55" t="s">
         <v>94</v>
@@ -11541,7 +11565,7 @@
         <v>104</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E56" t="s">
         <v>94</v>
@@ -11558,7 +11582,7 @@
         <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E57" t="s">
         <v>94</v>
@@ -11575,7 +11599,7 @@
         <v>104</v>
       </c>
       <c r="D58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E58" t="s">
         <v>94</v>
@@ -11592,7 +11616,7 @@
         <v>104</v>
       </c>
       <c r="D59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E59" t="s">
         <v>94</v>
@@ -11609,7 +11633,7 @@
         <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E60" t="s">
         <v>94</v>
@@ -11626,7 +11650,7 @@
         <v>104</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E61" t="s">
         <v>94</v>
@@ -11643,7 +11667,7 @@
         <v>104</v>
       </c>
       <c r="D62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E62" t="s">
         <v>94</v>
@@ -11660,7 +11684,7 @@
         <v>104</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E63" t="s">
         <v>94</v>
@@ -11677,7 +11701,7 @@
         <v>104</v>
       </c>
       <c r="D64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E64" t="s">
         <v>94</v>
@@ -11694,7 +11718,7 @@
         <v>104</v>
       </c>
       <c r="D65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E65" t="s">
         <v>94</v>
@@ -11711,7 +11735,7 @@
         <v>104</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E66" t="s">
         <v>94</v>
@@ -11728,7 +11752,7 @@
         <v>104</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E67" t="s">
         <v>94</v>
@@ -11745,7 +11769,7 @@
         <v>104</v>
       </c>
       <c r="D68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E68" t="s">
         <v>94</v>
@@ -11762,7 +11786,7 @@
         <v>104</v>
       </c>
       <c r="D69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E69" t="s">
         <v>94</v>
@@ -11779,7 +11803,7 @@
         <v>104</v>
       </c>
       <c r="D70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E70" t="s">
         <v>94</v>
@@ -11796,7 +11820,7 @@
         <v>104</v>
       </c>
       <c r="D71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E71" t="s">
         <v>94</v>
@@ -11813,7 +11837,7 @@
         <v>104</v>
       </c>
       <c r="D72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E72" t="s">
         <v>94</v>
@@ -11830,7 +11854,7 @@
         <v>104</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E73" t="s">
         <v>94</v>
@@ -11847,7 +11871,7 @@
         <v>104</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E74" t="s">
         <v>94</v>
@@ -11864,7 +11888,7 @@
         <v>104</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E75" t="s">
         <v>94</v>
@@ -11881,7 +11905,7 @@
         <v>104</v>
       </c>
       <c r="D76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E76" t="s">
         <v>94</v>
@@ -11898,7 +11922,7 @@
         <v>104</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E77" t="s">
         <v>94</v>
@@ -11915,7 +11939,7 @@
         <v>104</v>
       </c>
       <c r="D78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E78" t="s">
         <v>94</v>
@@ -11932,7 +11956,7 @@
         <v>104</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E79" t="s">
         <v>94</v>
@@ -11949,10 +11973,10 @@
         <v>104</v>
       </c>
       <c r="D80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -11966,7 +11990,7 @@
         <v>104</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E81" t="s">
         <v>95</v>
@@ -11983,7 +12007,7 @@
         <v>104</v>
       </c>
       <c r="D82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E82" t="s">
         <v>95</v>
@@ -12000,7 +12024,7 @@
         <v>104</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E83" t="s">
         <v>95</v>
@@ -12017,7 +12041,7 @@
         <v>104</v>
       </c>
       <c r="D84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E84" t="s">
         <v>95</v>
@@ -12034,7 +12058,7 @@
         <v>104</v>
       </c>
       <c r="D85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E85" t="s">
         <v>95</v>
@@ -12051,7 +12075,7 @@
         <v>104</v>
       </c>
       <c r="D86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E86" t="s">
         <v>95</v>
@@ -12068,7 +12092,7 @@
         <v>104</v>
       </c>
       <c r="D87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E87" t="s">
         <v>95</v>
@@ -12085,7 +12109,7 @@
         <v>104</v>
       </c>
       <c r="D88" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E88" t="s">
         <v>95</v>
@@ -12102,7 +12126,7 @@
         <v>104</v>
       </c>
       <c r="D89" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E89" t="s">
         <v>95</v>
@@ -12119,7 +12143,7 @@
         <v>104</v>
       </c>
       <c r="D90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E90" t="s">
         <v>95</v>
@@ -12136,7 +12160,7 @@
         <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E91" t="s">
         <v>95</v>
@@ -12153,7 +12177,7 @@
         <v>104</v>
       </c>
       <c r="D92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E92" t="s">
         <v>95</v>
@@ -12170,7 +12194,7 @@
         <v>104</v>
       </c>
       <c r="D93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E93" t="s">
         <v>95</v>
@@ -12187,7 +12211,7 @@
         <v>104</v>
       </c>
       <c r="D94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E94" t="s">
         <v>95</v>
@@ -12204,7 +12228,7 @@
         <v>104</v>
       </c>
       <c r="D95" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E95" t="s">
         <v>95</v>
@@ -12221,7 +12245,7 @@
         <v>104</v>
       </c>
       <c r="D96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E96" t="s">
         <v>95</v>
@@ -12238,7 +12262,7 @@
         <v>104</v>
       </c>
       <c r="D97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E97" t="s">
         <v>95</v>
@@ -12255,7 +12279,7 @@
         <v>104</v>
       </c>
       <c r="D98" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E98" t="s">
         <v>95</v>
@@ -12272,7 +12296,7 @@
         <v>104</v>
       </c>
       <c r="D99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E99" t="s">
         <v>95</v>
@@ -12289,7 +12313,7 @@
         <v>104</v>
       </c>
       <c r="D100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E100" t="s">
         <v>95</v>
@@ -12306,7 +12330,7 @@
         <v>104</v>
       </c>
       <c r="D101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E101" t="s">
         <v>95</v>
@@ -12323,7 +12347,7 @@
         <v>104</v>
       </c>
       <c r="D102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E102" t="s">
         <v>95</v>
@@ -12340,7 +12364,7 @@
         <v>104</v>
       </c>
       <c r="D103" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E103" t="s">
         <v>95</v>
@@ -12357,7 +12381,7 @@
         <v>104</v>
       </c>
       <c r="D104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E104" t="s">
         <v>95</v>
@@ -12374,7 +12398,7 @@
         <v>104</v>
       </c>
       <c r="D105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E105" t="s">
         <v>95</v>
@@ -12391,7 +12415,7 @@
         <v>104</v>
       </c>
       <c r="D106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E106" t="s">
         <v>95</v>
@@ -12408,7 +12432,7 @@
         <v>104</v>
       </c>
       <c r="D107" t="s">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="E107" t="s">
         <v>95</v>
@@ -12425,10 +12449,10 @@
         <v>104</v>
       </c>
       <c r="D108" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E108" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -12442,7 +12466,7 @@
         <v>104</v>
       </c>
       <c r="D109" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E109" t="s">
         <v>94</v>
@@ -12459,7 +12483,7 @@
         <v>104</v>
       </c>
       <c r="D110" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E110" t="s">
         <v>94</v>
@@ -12476,10 +12500,10 @@
         <v>104</v>
       </c>
       <c r="D111" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E111" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -12493,10 +12517,10 @@
         <v>104</v>
       </c>
       <c r="D112" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E112" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -12510,7 +12534,7 @@
         <v>104</v>
       </c>
       <c r="D113" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E113" t="s">
         <v>94</v>
@@ -12527,7 +12551,7 @@
         <v>104</v>
       </c>
       <c r="D114" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E114" t="s">
         <v>94</v>
@@ -12544,7 +12568,7 @@
         <v>104</v>
       </c>
       <c r="D115" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E115" t="s">
         <v>94</v>
@@ -12561,7 +12585,7 @@
         <v>104</v>
       </c>
       <c r="D116" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E116" t="s">
         <v>94</v>
@@ -12578,7 +12602,7 @@
         <v>104</v>
       </c>
       <c r="D117" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E117" t="s">
         <v>94</v>
@@ -12595,7 +12619,7 @@
         <v>104</v>
       </c>
       <c r="D118" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E118" t="s">
         <v>94</v>
@@ -12612,7 +12636,7 @@
         <v>104</v>
       </c>
       <c r="D119" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E119" t="s">
         <v>94</v>
@@ -12629,7 +12653,7 @@
         <v>104</v>
       </c>
       <c r="D120" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E120" t="s">
         <v>94</v>
@@ -12646,7 +12670,7 @@
         <v>104</v>
       </c>
       <c r="D121" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E121" t="s">
         <v>94</v>
@@ -12663,7 +12687,7 @@
         <v>104</v>
       </c>
       <c r="D122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E122" t="s">
         <v>94</v>
@@ -12680,7 +12704,7 @@
         <v>104</v>
       </c>
       <c r="D123" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E123" t="s">
         <v>94</v>
@@ -12697,7 +12721,7 @@
         <v>104</v>
       </c>
       <c r="D124" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E124" t="s">
         <v>94</v>
@@ -12714,7 +12738,7 @@
         <v>104</v>
       </c>
       <c r="D125" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E125" t="s">
         <v>94</v>
@@ -12731,7 +12755,7 @@
         <v>104</v>
       </c>
       <c r="D126" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E126" t="s">
         <v>94</v>
@@ -12748,7 +12772,7 @@
         <v>104</v>
       </c>
       <c r="D127" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E127" t="s">
         <v>94</v>
@@ -12765,7 +12789,7 @@
         <v>104</v>
       </c>
       <c r="D128" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E128" t="s">
         <v>94</v>
@@ -12782,7 +12806,7 @@
         <v>104</v>
       </c>
       <c r="D129" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E129" t="s">
         <v>94</v>
@@ -12799,7 +12823,7 @@
         <v>104</v>
       </c>
       <c r="D130" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E130" t="s">
         <v>94</v>
@@ -12816,7 +12840,7 @@
         <v>104</v>
       </c>
       <c r="D131" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E131" t="s">
         <v>94</v>
@@ -12833,7 +12857,7 @@
         <v>104</v>
       </c>
       <c r="D132" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E132" t="s">
         <v>94</v>
@@ -12850,7 +12874,7 @@
         <v>104</v>
       </c>
       <c r="D133" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E133" t="s">
         <v>94</v>
@@ -12867,7 +12891,7 @@
         <v>104</v>
       </c>
       <c r="D134" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E134" t="s">
         <v>94</v>
@@ -12884,7 +12908,7 @@
         <v>104</v>
       </c>
       <c r="D135" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E135" t="s">
         <v>94</v>
@@ -12901,7 +12925,7 @@
         <v>104</v>
       </c>
       <c r="D136" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E136" t="s">
         <v>94</v>
@@ -12918,7 +12942,7 @@
         <v>104</v>
       </c>
       <c r="D137" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E137" t="s">
         <v>94</v>
@@ -12935,7 +12959,7 @@
         <v>104</v>
       </c>
       <c r="D138" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E138" t="s">
         <v>94</v>
@@ -12952,7 +12976,7 @@
         <v>104</v>
       </c>
       <c r="D139" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E139" t="s">
         <v>94</v>
@@ -12969,7 +12993,7 @@
         <v>104</v>
       </c>
       <c r="D140" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E140" t="s">
         <v>94</v>
@@ -12986,7 +13010,7 @@
         <v>104</v>
       </c>
       <c r="D141" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E141" t="s">
         <v>94</v>
@@ -13003,7 +13027,7 @@
         <v>104</v>
       </c>
       <c r="D142" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E142" t="s">
         <v>94</v>
@@ -13020,7 +13044,7 @@
         <v>104</v>
       </c>
       <c r="D143" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E143" t="s">
         <v>94</v>
@@ -13037,7 +13061,7 @@
         <v>104</v>
       </c>
       <c r="D144" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E144" t="s">
         <v>94</v>
@@ -13054,7 +13078,7 @@
         <v>104</v>
       </c>
       <c r="D145" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E145" t="s">
         <v>94</v>
@@ -13071,7 +13095,7 @@
         <v>104</v>
       </c>
       <c r="D146" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E146" t="s">
         <v>94</v>
@@ -13088,7 +13112,7 @@
         <v>104</v>
       </c>
       <c r="D147" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E147" t="s">
         <v>94</v>
@@ -13105,7 +13129,7 @@
         <v>104</v>
       </c>
       <c r="D148" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E148" t="s">
         <v>94</v>
@@ -13122,7 +13146,7 @@
         <v>104</v>
       </c>
       <c r="D149" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E149" t="s">
         <v>94</v>
@@ -13139,7 +13163,7 @@
         <v>104</v>
       </c>
       <c r="D150" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E150" t="s">
         <v>94</v>
@@ -13156,7 +13180,7 @@
         <v>104</v>
       </c>
       <c r="D151" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E151" t="s">
         <v>94</v>
@@ -13173,7 +13197,7 @@
         <v>104</v>
       </c>
       <c r="D152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E152" t="s">
         <v>94</v>
@@ -13190,7 +13214,7 @@
         <v>104</v>
       </c>
       <c r="D153" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E153" t="s">
         <v>94</v>
@@ -13207,7 +13231,7 @@
         <v>104</v>
       </c>
       <c r="D154" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E154" t="s">
         <v>94</v>
@@ -13224,7 +13248,7 @@
         <v>104</v>
       </c>
       <c r="D155" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E155" t="s">
         <v>94</v>
@@ -13241,7 +13265,7 @@
         <v>104</v>
       </c>
       <c r="D156" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E156" t="s">
         <v>94</v>
@@ -13258,7 +13282,7 @@
         <v>104</v>
       </c>
       <c r="D157" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E157" t="s">
         <v>94</v>
@@ -13275,7 +13299,7 @@
         <v>104</v>
       </c>
       <c r="D158" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E158" t="s">
         <v>94</v>
@@ -13292,7 +13316,7 @@
         <v>104</v>
       </c>
       <c r="D159" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E159" t="s">
         <v>94</v>
@@ -13309,7 +13333,7 @@
         <v>104</v>
       </c>
       <c r="D160" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E160" t="s">
         <v>94</v>
@@ -13326,7 +13350,7 @@
         <v>104</v>
       </c>
       <c r="D161" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E161" t="s">
         <v>94</v>
@@ -13343,7 +13367,7 @@
         <v>104</v>
       </c>
       <c r="D162" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E162" t="s">
         <v>94</v>
@@ -13360,10 +13384,10 @@
         <v>104</v>
       </c>
       <c r="D163" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E163" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -13377,7 +13401,7 @@
         <v>104</v>
       </c>
       <c r="D164" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E164" t="s">
         <v>95</v>
@@ -13394,7 +13418,7 @@
         <v>104</v>
       </c>
       <c r="D165" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E165" t="s">
         <v>95</v>
@@ -13411,7 +13435,7 @@
         <v>104</v>
       </c>
       <c r="D166" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E166" t="s">
         <v>95</v>
@@ -13428,7 +13452,7 @@
         <v>104</v>
       </c>
       <c r="D167" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E167" t="s">
         <v>95</v>
@@ -13445,7 +13469,7 @@
         <v>104</v>
       </c>
       <c r="D168" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E168" t="s">
         <v>95</v>
@@ -13462,7 +13486,7 @@
         <v>104</v>
       </c>
       <c r="D169" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E169" t="s">
         <v>95</v>
@@ -13479,7 +13503,7 @@
         <v>104</v>
       </c>
       <c r="D170" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E170" t="s">
         <v>95</v>
@@ -13496,7 +13520,7 @@
         <v>104</v>
       </c>
       <c r="D171" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E171" t="s">
         <v>95</v>
@@ -13513,7 +13537,7 @@
         <v>104</v>
       </c>
       <c r="D172" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E172" t="s">
         <v>95</v>
@@ -13530,7 +13554,7 @@
         <v>104</v>
       </c>
       <c r="D173" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E173" t="s">
         <v>95</v>
@@ -13547,7 +13571,7 @@
         <v>104</v>
       </c>
       <c r="D174" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E174" t="s">
         <v>95</v>
@@ -13564,7 +13588,7 @@
         <v>104</v>
       </c>
       <c r="D175" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E175" t="s">
         <v>95</v>
@@ -13581,7 +13605,7 @@
         <v>104</v>
       </c>
       <c r="D176" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E176" t="s">
         <v>95</v>
@@ -13598,7 +13622,7 @@
         <v>104</v>
       </c>
       <c r="D177" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E177" t="s">
         <v>95</v>
@@ -13615,7 +13639,7 @@
         <v>104</v>
       </c>
       <c r="D178" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E178" t="s">
         <v>95</v>
@@ -13632,7 +13656,7 @@
         <v>104</v>
       </c>
       <c r="D179" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E179" t="s">
         <v>95</v>
@@ -13649,7 +13673,7 @@
         <v>104</v>
       </c>
       <c r="D180" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E180" t="s">
         <v>95</v>
@@ -13666,7 +13690,7 @@
         <v>104</v>
       </c>
       <c r="D181" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E181" t="s">
         <v>95</v>
@@ -13683,7 +13707,7 @@
         <v>104</v>
       </c>
       <c r="D182" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E182" t="s">
         <v>95</v>
@@ -13700,7 +13724,7 @@
         <v>104</v>
       </c>
       <c r="D183" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E183" t="s">
         <v>95</v>
@@ -13717,7 +13741,7 @@
         <v>104</v>
       </c>
       <c r="D184" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E184" t="s">
         <v>95</v>
@@ -13734,7 +13758,7 @@
         <v>104</v>
       </c>
       <c r="D185" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E185" t="s">
         <v>95</v>
@@ -13751,7 +13775,7 @@
         <v>104</v>
       </c>
       <c r="D186" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E186" t="s">
         <v>95</v>
@@ -13768,7 +13792,7 @@
         <v>104</v>
       </c>
       <c r="D187" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E187" t="s">
         <v>95</v>
@@ -13785,7 +13809,7 @@
         <v>104</v>
       </c>
       <c r="D188" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E188" t="s">
         <v>95</v>
@@ -13802,7 +13826,7 @@
         <v>104</v>
       </c>
       <c r="D189" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E189" t="s">
         <v>95</v>
@@ -13819,7 +13843,7 @@
         <v>104</v>
       </c>
       <c r="D190" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E190" t="s">
         <v>95</v>
@@ -13836,10 +13860,10 @@
         <v>104</v>
       </c>
       <c r="D191" t="s">
-        <v>545</v>
+        <v>355</v>
       </c>
       <c r="E191" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -13853,7 +13877,7 @@
         <v>104</v>
       </c>
       <c r="D192" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E192" t="s">
         <v>94</v>
@@ -13870,7 +13894,7 @@
         <v>104</v>
       </c>
       <c r="D193" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E193" t="s">
         <v>94</v>
@@ -13887,10 +13911,10 @@
         <v>104</v>
       </c>
       <c r="D194" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E194" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -13904,10 +13928,10 @@
         <v>104</v>
       </c>
       <c r="D195" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E195" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -13921,7 +13945,7 @@
         <v>104</v>
       </c>
       <c r="D196" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E196" t="s">
         <v>94</v>
@@ -13938,7 +13962,7 @@
         <v>104</v>
       </c>
       <c r="D197" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E197" t="s">
         <v>94</v>
@@ -13955,7 +13979,7 @@
         <v>104</v>
       </c>
       <c r="D198" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E198" t="s">
         <v>94</v>
@@ -13972,7 +13996,7 @@
         <v>104</v>
       </c>
       <c r="D199" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E199" t="s">
         <v>94</v>
@@ -13989,7 +14013,7 @@
         <v>104</v>
       </c>
       <c r="D200" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E200" t="s">
         <v>94</v>
@@ -14006,7 +14030,7 @@
         <v>104</v>
       </c>
       <c r="D201" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E201" t="s">
         <v>94</v>
@@ -14023,7 +14047,7 @@
         <v>104</v>
       </c>
       <c r="D202" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E202" t="s">
         <v>94</v>
@@ -14040,7 +14064,7 @@
         <v>104</v>
       </c>
       <c r="D203" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E203" t="s">
         <v>94</v>
@@ -14057,7 +14081,7 @@
         <v>104</v>
       </c>
       <c r="D204" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E204" t="s">
         <v>94</v>
@@ -14074,7 +14098,7 @@
         <v>104</v>
       </c>
       <c r="D205" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E205" t="s">
         <v>94</v>
@@ -14091,7 +14115,7 @@
         <v>104</v>
       </c>
       <c r="D206" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E206" t="s">
         <v>94</v>
@@ -14108,7 +14132,7 @@
         <v>104</v>
       </c>
       <c r="D207" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E207" t="s">
         <v>94</v>
@@ -14125,7 +14149,7 @@
         <v>104</v>
       </c>
       <c r="D208" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E208" t="s">
         <v>94</v>
@@ -14142,7 +14166,7 @@
         <v>104</v>
       </c>
       <c r="D209" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E209" t="s">
         <v>94</v>
@@ -14159,7 +14183,7 @@
         <v>104</v>
       </c>
       <c r="D210" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E210" t="s">
         <v>94</v>
@@ -14176,7 +14200,7 @@
         <v>104</v>
       </c>
       <c r="D211" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E211" t="s">
         <v>94</v>
@@ -14193,7 +14217,7 @@
         <v>104</v>
       </c>
       <c r="D212" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E212" t="s">
         <v>94</v>
@@ -14210,7 +14234,7 @@
         <v>104</v>
       </c>
       <c r="D213" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E213" t="s">
         <v>94</v>
@@ -14227,7 +14251,7 @@
         <v>104</v>
       </c>
       <c r="D214" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E214" t="s">
         <v>94</v>
@@ -14244,7 +14268,7 @@
         <v>104</v>
       </c>
       <c r="D215" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E215" t="s">
         <v>94</v>
@@ -14261,7 +14285,7 @@
         <v>104</v>
       </c>
       <c r="D216" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E216" t="s">
         <v>94</v>
@@ -14278,7 +14302,7 @@
         <v>104</v>
       </c>
       <c r="D217" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E217" t="s">
         <v>94</v>
@@ -14295,7 +14319,7 @@
         <v>104</v>
       </c>
       <c r="D218" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E218" t="s">
         <v>94</v>
@@ -14312,7 +14336,7 @@
         <v>104</v>
       </c>
       <c r="D219" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E219" t="s">
         <v>94</v>
@@ -14329,7 +14353,7 @@
         <v>104</v>
       </c>
       <c r="D220" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E220" t="s">
         <v>94</v>
@@ -14346,7 +14370,7 @@
         <v>104</v>
       </c>
       <c r="D221" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E221" t="s">
         <v>94</v>
@@ -14363,7 +14387,7 @@
         <v>104</v>
       </c>
       <c r="D222" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E222" t="s">
         <v>94</v>
@@ -14380,7 +14404,7 @@
         <v>104</v>
       </c>
       <c r="D223" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E223" t="s">
         <v>94</v>
@@ -14397,7 +14421,7 @@
         <v>104</v>
       </c>
       <c r="D224" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E224" t="s">
         <v>94</v>
@@ -14414,7 +14438,7 @@
         <v>104</v>
       </c>
       <c r="D225" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E225" t="s">
         <v>94</v>
@@ -14431,7 +14455,7 @@
         <v>104</v>
       </c>
       <c r="D226" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E226" t="s">
         <v>94</v>
@@ -14448,7 +14472,7 @@
         <v>104</v>
       </c>
       <c r="D227" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E227" t="s">
         <v>94</v>
@@ -14465,7 +14489,7 @@
         <v>104</v>
       </c>
       <c r="D228" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E228" t="s">
         <v>94</v>
@@ -14482,7 +14506,7 @@
         <v>104</v>
       </c>
       <c r="D229" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E229" t="s">
         <v>94</v>
@@ -14499,7 +14523,7 @@
         <v>104</v>
       </c>
       <c r="D230" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E230" t="s">
         <v>94</v>
@@ -14516,7 +14540,7 @@
         <v>104</v>
       </c>
       <c r="D231" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E231" t="s">
         <v>94</v>
@@ -14533,7 +14557,7 @@
         <v>104</v>
       </c>
       <c r="D232" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E232" t="s">
         <v>94</v>
@@ -14550,7 +14574,7 @@
         <v>104</v>
       </c>
       <c r="D233" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E233" t="s">
         <v>94</v>
@@ -14567,7 +14591,7 @@
         <v>104</v>
       </c>
       <c r="D234" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E234" t="s">
         <v>94</v>
@@ -14584,7 +14608,7 @@
         <v>104</v>
       </c>
       <c r="D235" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E235" t="s">
         <v>94</v>
@@ -14601,7 +14625,7 @@
         <v>104</v>
       </c>
       <c r="D236" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E236" t="s">
         <v>94</v>
@@ -14618,7 +14642,7 @@
         <v>104</v>
       </c>
       <c r="D237" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E237" t="s">
         <v>94</v>
@@ -14635,7 +14659,7 @@
         <v>104</v>
       </c>
       <c r="D238" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E238" t="s">
         <v>94</v>
@@ -14652,7 +14676,7 @@
         <v>104</v>
       </c>
       <c r="D239" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E239" t="s">
         <v>94</v>
@@ -14669,7 +14693,7 @@
         <v>104</v>
       </c>
       <c r="D240" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E240" t="s">
         <v>94</v>
@@ -14686,7 +14710,7 @@
         <v>104</v>
       </c>
       <c r="D241" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E241" t="s">
         <v>94</v>
@@ -14703,7 +14727,7 @@
         <v>104</v>
       </c>
       <c r="D242" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E242" t="s">
         <v>94</v>
@@ -14720,7 +14744,7 @@
         <v>104</v>
       </c>
       <c r="D243" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E243" t="s">
         <v>94</v>
@@ -14737,7 +14761,7 @@
         <v>104</v>
       </c>
       <c r="D244" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E244" t="s">
         <v>94</v>
@@ -14754,7 +14778,7 @@
         <v>104</v>
       </c>
       <c r="D245" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E245" t="s">
         <v>94</v>
@@ -14771,10 +14795,10 @@
         <v>104</v>
       </c>
       <c r="D246" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E246" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -14788,7 +14812,7 @@
         <v>104</v>
       </c>
       <c r="D247" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E247" t="s">
         <v>95</v>
@@ -14805,7 +14829,7 @@
         <v>104</v>
       </c>
       <c r="D248" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E248" t="s">
         <v>95</v>
@@ -14822,7 +14846,7 @@
         <v>104</v>
       </c>
       <c r="D249" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E249" t="s">
         <v>95</v>
@@ -14839,7 +14863,7 @@
         <v>104</v>
       </c>
       <c r="D250" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E250" t="s">
         <v>95</v>
@@ -14856,7 +14880,7 @@
         <v>104</v>
       </c>
       <c r="D251" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E251" t="s">
         <v>95</v>
@@ -14873,7 +14897,7 @@
         <v>104</v>
       </c>
       <c r="D252" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E252" t="s">
         <v>95</v>
@@ -14890,7 +14914,7 @@
         <v>104</v>
       </c>
       <c r="D253" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E253" t="s">
         <v>95</v>
@@ -14907,7 +14931,7 @@
         <v>104</v>
       </c>
       <c r="D254" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E254" t="s">
         <v>95</v>
@@ -14924,7 +14948,7 @@
         <v>104</v>
       </c>
       <c r="D255" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E255" t="s">
         <v>95</v>
@@ -14941,7 +14965,7 @@
         <v>104</v>
       </c>
       <c r="D256" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E256" t="s">
         <v>95</v>
@@ -14958,7 +14982,7 @@
         <v>104</v>
       </c>
       <c r="D257" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E257" t="s">
         <v>95</v>
@@ -14975,7 +14999,7 @@
         <v>104</v>
       </c>
       <c r="D258" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E258" t="s">
         <v>95</v>
@@ -14992,7 +15016,7 @@
         <v>104</v>
       </c>
       <c r="D259" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E259" t="s">
         <v>95</v>
@@ -15009,7 +15033,7 @@
         <v>104</v>
       </c>
       <c r="D260" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E260" t="s">
         <v>95</v>
@@ -15026,7 +15050,7 @@
         <v>104</v>
       </c>
       <c r="D261" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E261" t="s">
         <v>95</v>
@@ -15043,7 +15067,7 @@
         <v>104</v>
       </c>
       <c r="D262" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E262" t="s">
         <v>95</v>
@@ -15060,7 +15084,7 @@
         <v>104</v>
       </c>
       <c r="D263" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E263" t="s">
         <v>95</v>
@@ -15077,7 +15101,7 @@
         <v>104</v>
       </c>
       <c r="D264" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E264" t="s">
         <v>95</v>
@@ -15094,7 +15118,7 @@
         <v>104</v>
       </c>
       <c r="D265" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E265" t="s">
         <v>95</v>
@@ -15111,7 +15135,7 @@
         <v>104</v>
       </c>
       <c r="D266" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E266" t="s">
         <v>95</v>
@@ -15128,7 +15152,7 @@
         <v>104</v>
       </c>
       <c r="D267" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E267" t="s">
         <v>95</v>
@@ -15145,7 +15169,7 @@
         <v>104</v>
       </c>
       <c r="D268" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E268" t="s">
         <v>95</v>
@@ -15162,7 +15186,7 @@
         <v>104</v>
       </c>
       <c r="D269" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E269" t="s">
         <v>95</v>
@@ -15179,7 +15203,7 @@
         <v>104</v>
       </c>
       <c r="D270" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E270" t="s">
         <v>95</v>
@@ -15196,7 +15220,7 @@
         <v>104</v>
       </c>
       <c r="D271" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E271" t="s">
         <v>95</v>
@@ -15213,7 +15237,7 @@
         <v>104</v>
       </c>
       <c r="D272" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E272" t="s">
         <v>95</v>
@@ -15230,7 +15254,7 @@
         <v>104</v>
       </c>
       <c r="D273" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E273" t="s">
         <v>95</v>
@@ -15247,10 +15271,10 @@
         <v>104</v>
       </c>
       <c r="D274" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E274" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -15264,7 +15288,7 @@
         <v>104</v>
       </c>
       <c r="D275" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E275" t="s">
         <v>94</v>
@@ -15281,7 +15305,7 @@
         <v>104</v>
       </c>
       <c r="D276" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E276" t="s">
         <v>94</v>
@@ -15298,10 +15322,10 @@
         <v>104</v>
       </c>
       <c r="D277" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E277" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -15315,10 +15339,10 @@
         <v>104</v>
       </c>
       <c r="D278" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E278" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -15332,7 +15356,7 @@
         <v>104</v>
       </c>
       <c r="D279" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E279" t="s">
         <v>94</v>
@@ -15349,7 +15373,7 @@
         <v>104</v>
       </c>
       <c r="D280" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E280" t="s">
         <v>94</v>
@@ -15366,7 +15390,7 @@
         <v>104</v>
       </c>
       <c r="D281" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E281" t="s">
         <v>94</v>
@@ -15383,7 +15407,7 @@
         <v>104</v>
       </c>
       <c r="D282" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E282" t="s">
         <v>94</v>
@@ -15400,7 +15424,7 @@
         <v>104</v>
       </c>
       <c r="D283" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E283" t="s">
         <v>94</v>
@@ -15417,7 +15441,7 @@
         <v>104</v>
       </c>
       <c r="D284" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E284" t="s">
         <v>94</v>
@@ -15434,7 +15458,7 @@
         <v>104</v>
       </c>
       <c r="D285" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E285" t="s">
         <v>94</v>
@@ -15451,7 +15475,7 @@
         <v>104</v>
       </c>
       <c r="D286" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E286" t="s">
         <v>94</v>
@@ -15459,24 +15483,24 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C287" t="s">
         <v>104</v>
       </c>
       <c r="D287" t="s">
-        <v>102</v>
+        <v>644</v>
       </c>
       <c r="E287" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" t="s">
         <v>96</v>
@@ -15485,15 +15509,15 @@
         <v>104</v>
       </c>
       <c r="D288" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E288" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" t="s">
         <v>96</v>
@@ -15502,7 +15526,7 @@
         <v>104</v>
       </c>
       <c r="D289" t="s">
-        <v>563</v>
+        <v>103</v>
       </c>
       <c r="E289" t="s">
         <v>94</v>
@@ -15510,7 +15534,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" t="s">
         <v>96</v>
@@ -15519,7 +15543,7 @@
         <v>104</v>
       </c>
       <c r="D290" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E290" t="s">
         <v>94</v>
@@ -15527,7 +15551,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" t="s">
         <v>96</v>
@@ -15536,7 +15560,7 @@
         <v>104</v>
       </c>
       <c r="D291" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E291" t="s">
         <v>94</v>
@@ -15544,7 +15568,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" t="s">
         <v>96</v>
@@ -15553,9 +15577,26 @@
         <v>104</v>
       </c>
       <c r="D292" t="s">
+        <v>565</v>
+      </c>
+      <c r="E292" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>96</v>
+      </c>
+      <c r="C293" t="s">
+        <v>104</v>
+      </c>
+      <c r="D293" t="s">
         <v>566</v>
       </c>
-      <c r="E292" t="s">
+      <c r="E293" t="s">
         <v>94</v>
       </c>
     </row>

--- a/Base/db_backboneConfig_300.xlsx
+++ b/Base/db_backboneConfig_300.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HOUJ\Documents\GitHub\HOLON\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BCCAEC-A20F-4DA2-A24B-08F1F58CD8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7024EF-51E9-42DB-B525-5A18C406606E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3788" uniqueCount="671">
   <si>
     <t>id</t>
   </si>
@@ -2028,6 +2028,30 @@
   </si>
   <si>
     <t>isolation_label</t>
+  </si>
+  <si>
+    <t>b301</t>
+  </si>
+  <si>
+    <t>b302</t>
+  </si>
+  <si>
+    <t>INDUSTRY</t>
+  </si>
+  <si>
+    <t>STEEL</t>
+  </si>
+  <si>
+    <t>com9</t>
+  </si>
+  <si>
+    <t>com10</t>
+  </si>
+  <si>
+    <t>INDUSTRY_OTHER</t>
+  </si>
+  <si>
+    <t>HYDROGENFIRED</t>
   </si>
 </sst>
 </file>
@@ -2625,10 +2649,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F79AE7D-6C5C-4EEF-8F2D-727C87414EF2}">
-  <dimension ref="A1:K301"/>
+  <dimension ref="A1:K303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="H306" sqref="H306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2638,6 +2662,7 @@
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -12474,6 +12499,70 @@
       </c>
       <c r="K301" t="s">
         <v>641</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>650</v>
+      </c>
+      <c r="C302" t="s">
+        <v>663</v>
+      </c>
+      <c r="D302" t="s">
+        <v>665</v>
+      </c>
+      <c r="E302" t="s">
+        <v>666</v>
+      </c>
+      <c r="F302" t="s">
+        <v>103</v>
+      </c>
+      <c r="G302" t="s">
+        <v>647</v>
+      </c>
+      <c r="H302" t="s">
+        <v>1</v>
+      </c>
+      <c r="J302">
+        <v>1000</v>
+      </c>
+      <c r="K302" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>650</v>
+      </c>
+      <c r="C303" t="s">
+        <v>664</v>
+      </c>
+      <c r="D303" t="s">
+        <v>665</v>
+      </c>
+      <c r="E303" t="s">
+        <v>669</v>
+      </c>
+      <c r="F303" t="s">
+        <v>103</v>
+      </c>
+      <c r="G303" t="s">
+        <v>670</v>
+      </c>
+      <c r="H303" t="s">
+        <v>2</v>
+      </c>
+      <c r="J303">
+        <v>1000</v>
+      </c>
+      <c r="K303" t="s">
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -12484,10 +12573,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F595F011-BCBA-42A0-B2C1-EC2B9C01AA0D}">
-  <dimension ref="A1:E293"/>
+  <dimension ref="A1:E295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="C302" sqref="C302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -17475,6 +17564,40 @@
         <v>91</v>
       </c>
     </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>93</v>
+      </c>
+      <c r="C294" t="s">
+        <v>101</v>
+      </c>
+      <c r="D294" t="s">
+        <v>667</v>
+      </c>
+      <c r="E294" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>93</v>
+      </c>
+      <c r="C295" t="s">
+        <v>101</v>
+      </c>
+      <c r="D295" t="s">
+        <v>668</v>
+      </c>
+      <c r="E295" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17486,7 +17609,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/Base/db_backboneConfig_300.xlsx
+++ b/Base/db_backboneConfig_300.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HOUJ\Documents\GitHub\HOLON\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7024EF-51E9-42DB-B525-5A18C406606E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61FB24C-485F-4E94-AE3F-1CB367F201E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="config_gridConnections" sheetId="7" r:id="rId3"/>
     <sheet name="config_actors" sheetId="5" r:id="rId4"/>
     <sheet name="config_energyAssets" sheetId="4" r:id="rId5"/>
+    <sheet name="config_policies" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3788" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3809" uniqueCount="687">
   <si>
     <t>id</t>
   </si>
@@ -2052,6 +2053,54 @@
   </si>
   <si>
     <t>HYDROGENFIRED</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>EV_charging_attitude_standard</t>
+  </si>
+  <si>
+    <t>CHEAP</t>
+  </si>
+  <si>
+    <t>charging behaviour not contingent on holon</t>
+  </si>
+  <si>
+    <t>Grid_MS_congestion_allowance_level_kW</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>gridOperator policy variable</t>
+  </si>
+  <si>
+    <t>Grid_MS_congestion_price</t>
+  </si>
+  <si>
+    <t>gridOperator policy value</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>Grid_MS_congestion_threshold</t>
+  </si>
+  <si>
+    <t>Grid_MS_congestion_pricing_consumption</t>
+  </si>
+  <si>
+    <t>Grid_MS_congestion_pricing_production</t>
   </si>
 </sst>
 </file>
@@ -2651,7 +2700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F79AE7D-6C5C-4EEF-8F2D-727C87414EF2}">
   <dimension ref="A1:K303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+    <sheetView topLeftCell="A271" workbookViewId="0">
       <selection activeCell="H306" sqref="H306"/>
     </sheetView>
   </sheetViews>
@@ -17961,4 +18010,132 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F811909-04C9-49BC-AE7A-FC0724E3AC0A}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>681</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>684</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>683</v>
+      </c>
+      <c r="E5" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>686</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>682</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Base/db_backboneConfig_300.xlsx
+++ b/Base/db_backboneConfig_300.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HOUJ\Documents\GitHub\HOLON\Base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilli\Documents\Project HOLON\Git_Local_Clone\HOLON\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61FB24C-485F-4E94-AE3F-1CB367F201E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C6EF90-213E-4CC7-9E6A-EE32F1124B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28470" windowHeight="16920" activeTab="2" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3809" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3809" uniqueCount="688">
   <si>
     <t>id</t>
   </si>
@@ -2101,6 +2101,9 @@
   </si>
   <si>
     <t>Grid_MS_congestion_pricing_production</t>
+  </si>
+  <si>
+    <t>HEATPUMP_BOILERPEAK</t>
   </si>
 </sst>
 </file>
@@ -2700,8 +2703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F79AE7D-6C5C-4EEF-8F2D-727C87414EF2}">
   <dimension ref="A1:K303"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="H306" sqref="H306"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3648,7 +3651,7 @@
         <v>103</v>
       </c>
       <c r="G29" t="s">
-        <v>647</v>
+        <v>687</v>
       </c>
       <c r="H29" t="s">
         <v>2</v>
@@ -18016,7 +18019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F811909-04C9-49BC-AE7A-FC0724E3AC0A}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/Base/db_backboneConfig_300.xlsx
+++ b/Base/db_backboneConfig_300.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilli\Documents\Project HOLON\Git_Local_Clone\HOLON\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C6EF90-213E-4CC7-9E6A-EE32F1124B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405E2B53-BC96-4889-B05C-C7996D739D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28470" windowHeight="16920" activeTab="2" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
+    <workbookView xWindow="18375" yWindow="3720" windowWidth="28470" windowHeight="16920" activeTab="2" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3809" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="688">
   <si>
     <t>id</t>
   </si>
@@ -2150,11 +2150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2703,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F79AE7D-6C5C-4EEF-8F2D-727C87414EF2}">
   <dimension ref="A1:K303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2714,6 +2715,7 @@
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3663,7 +3665,7 @@
         <v>400000</v>
       </c>
       <c r="K29" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -12627,8 +12629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F595F011-BCBA-42A0-B2C1-EC2B9C01AA0D}">
   <dimension ref="A1:E295"/>
   <sheetViews>
-    <sheetView topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="C302" sqref="C302"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -12651,7 +12653,7 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -12668,7 +12670,7 @@
       <c r="D2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12685,7 +12687,7 @@
       <c r="D3" t="s">
         <v>70</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12702,7 +12704,7 @@
       <c r="D4" t="s">
         <v>71</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12719,7 +12721,7 @@
       <c r="D5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>96</v>
       </c>
     </row>
@@ -12736,7 +12738,7 @@
       <c r="D6" t="s">
         <v>73</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12753,7 +12755,7 @@
       <c r="D7" t="s">
         <v>74</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12770,7 +12772,7 @@
       <c r="D8" t="s">
         <v>75</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12787,7 +12789,7 @@
       <c r="D9" t="s">
         <v>76</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12804,7 +12806,7 @@
       <c r="D10" t="s">
         <v>77</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12821,7 +12823,7 @@
       <c r="D11" t="s">
         <v>78</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>96</v>
       </c>
     </row>
@@ -12838,7 +12840,7 @@
       <c r="D12" t="s">
         <v>79</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>96</v>
       </c>
     </row>
@@ -12855,7 +12857,7 @@
       <c r="D13" t="s">
         <v>80</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>96</v>
       </c>
     </row>
@@ -12872,7 +12874,7 @@
       <c r="D14" t="s">
         <v>81</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12889,7 +12891,7 @@
       <c r="D15" t="s">
         <v>82</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12906,7 +12908,7 @@
       <c r="D16" t="s">
         <v>83</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12923,7 +12925,7 @@
       <c r="D17" t="s">
         <v>84</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12940,7 +12942,7 @@
       <c r="D18" t="s">
         <v>85</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12957,7 +12959,7 @@
       <c r="D19" t="s">
         <v>86</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12974,7 +12976,7 @@
       <c r="D20" t="s">
         <v>89</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>96</v>
       </c>
     </row>
@@ -12991,7 +12993,7 @@
       <c r="D21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13008,7 +13010,7 @@
       <c r="D22" t="s">
         <v>91</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -13025,7 +13027,7 @@
       <c r="D23" t="s">
         <v>92</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -13042,7 +13044,7 @@
       <c r="D24" t="s">
         <v>96</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -13059,6 +13061,9 @@
       <c r="D25" t="s">
         <v>643</v>
       </c>
+      <c r="E25" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -13073,7 +13078,7 @@
       <c r="D26" t="s">
         <v>104</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13090,8 +13095,8 @@
       <c r="D27" t="s">
         <v>105</v>
       </c>
-      <c r="E27" t="s">
-        <v>91</v>
+      <c r="E27" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -13107,7 +13112,7 @@
       <c r="D28" t="s">
         <v>106</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13124,8 +13129,8 @@
       <c r="D29" t="s">
         <v>107</v>
       </c>
-      <c r="E29" t="s">
-        <v>96</v>
+      <c r="E29" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -13141,7 +13146,7 @@
       <c r="D30" t="s">
         <v>108</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13158,7 +13163,7 @@
       <c r="D31" t="s">
         <v>109</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13175,7 +13180,7 @@
       <c r="D32" t="s">
         <v>110</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13192,7 +13197,7 @@
       <c r="D33" t="s">
         <v>111</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13209,8 +13214,8 @@
       <c r="D34" t="s">
         <v>112</v>
       </c>
-      <c r="E34" t="s">
-        <v>91</v>
+      <c r="E34" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -13226,8 +13231,8 @@
       <c r="D35" t="s">
         <v>113</v>
       </c>
-      <c r="E35" t="s">
-        <v>91</v>
+      <c r="E35" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -13243,8 +13248,8 @@
       <c r="D36" t="s">
         <v>114</v>
       </c>
-      <c r="E36" t="s">
-        <v>91</v>
+      <c r="E36" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -13260,7 +13265,7 @@
       <c r="D37" t="s">
         <v>115</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13277,7 +13282,7 @@
       <c r="D38" t="s">
         <v>116</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13294,7 +13299,7 @@
       <c r="D39" t="s">
         <v>117</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13311,7 +13316,7 @@
       <c r="D40" t="s">
         <v>118</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13328,7 +13333,7 @@
       <c r="D41" t="s">
         <v>119</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13345,7 +13350,7 @@
       <c r="D42" t="s">
         <v>120</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13362,7 +13367,7 @@
       <c r="D43" t="s">
         <v>121</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13379,7 +13384,7 @@
       <c r="D44" t="s">
         <v>122</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13396,8 +13401,8 @@
       <c r="D45" t="s">
         <v>123</v>
       </c>
-      <c r="E45" t="s">
-        <v>91</v>
+      <c r="E45" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -13413,7 +13418,7 @@
       <c r="D46" t="s">
         <v>124</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13430,7 +13435,7 @@
       <c r="D47" t="s">
         <v>125</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13447,7 +13452,7 @@
       <c r="D48" t="s">
         <v>126</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13464,7 +13469,7 @@
       <c r="D49" t="s">
         <v>127</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13481,7 +13486,7 @@
       <c r="D50" t="s">
         <v>128</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13498,7 +13503,7 @@
       <c r="D51" t="s">
         <v>129</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13515,8 +13520,8 @@
       <c r="D52" t="s">
         <v>130</v>
       </c>
-      <c r="E52" t="s">
-        <v>91</v>
+      <c r="E52" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -13532,8 +13537,8 @@
       <c r="D53" t="s">
         <v>131</v>
       </c>
-      <c r="E53" t="s">
-        <v>91</v>
+      <c r="E53" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -13549,8 +13554,8 @@
       <c r="D54" t="s">
         <v>132</v>
       </c>
-      <c r="E54" t="s">
-        <v>91</v>
+      <c r="E54" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -13566,7 +13571,7 @@
       <c r="D55" t="s">
         <v>133</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13583,7 +13588,7 @@
       <c r="D56" t="s">
         <v>134</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13600,7 +13605,7 @@
       <c r="D57" t="s">
         <v>135</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13617,7 +13622,7 @@
       <c r="D58" t="s">
         <v>136</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13634,7 +13639,7 @@
       <c r="D59" t="s">
         <v>137</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13651,7 +13656,7 @@
       <c r="D60" t="s">
         <v>138</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13668,7 +13673,7 @@
       <c r="D61" t="s">
         <v>139</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13685,7 +13690,7 @@
       <c r="D62" t="s">
         <v>140</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13702,8 +13707,8 @@
       <c r="D63" t="s">
         <v>141</v>
       </c>
-      <c r="E63" t="s">
-        <v>91</v>
+      <c r="E63" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -13719,7 +13724,7 @@
       <c r="D64" t="s">
         <v>142</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13736,7 +13741,7 @@
       <c r="D65" t="s">
         <v>143</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13753,7 +13758,7 @@
       <c r="D66" t="s">
         <v>144</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13770,7 +13775,7 @@
       <c r="D67" t="s">
         <v>145</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13787,7 +13792,7 @@
       <c r="D68" t="s">
         <v>146</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13804,7 +13809,7 @@
       <c r="D69" t="s">
         <v>147</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13821,8 +13826,8 @@
       <c r="D70" t="s">
         <v>148</v>
       </c>
-      <c r="E70" t="s">
-        <v>91</v>
+      <c r="E70" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -13838,8 +13843,8 @@
       <c r="D71" t="s">
         <v>149</v>
       </c>
-      <c r="E71" t="s">
-        <v>91</v>
+      <c r="E71" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -13855,8 +13860,8 @@
       <c r="D72" t="s">
         <v>150</v>
       </c>
-      <c r="E72" t="s">
-        <v>91</v>
+      <c r="E72" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -13872,7 +13877,7 @@
       <c r="D73" t="s">
         <v>151</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13889,7 +13894,7 @@
       <c r="D74" t="s">
         <v>152</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13906,7 +13911,7 @@
       <c r="D75" t="s">
         <v>153</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13923,7 +13928,7 @@
       <c r="D76" t="s">
         <v>154</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13940,7 +13945,7 @@
       <c r="D77" t="s">
         <v>155</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13957,7 +13962,7 @@
       <c r="D78" t="s">
         <v>156</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13974,7 +13979,7 @@
       <c r="D79" t="s">
         <v>157</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13991,8 +13996,8 @@
       <c r="D80" t="s">
         <v>158</v>
       </c>
-      <c r="E80" t="s">
-        <v>91</v>
+      <c r="E80" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -14008,8 +14013,8 @@
       <c r="D81" t="s">
         <v>159</v>
       </c>
-      <c r="E81" t="s">
-        <v>92</v>
+      <c r="E81" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -14025,7 +14030,7 @@
       <c r="D82" t="s">
         <v>160</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14042,7 +14047,7 @@
       <c r="D83" t="s">
         <v>161</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14059,7 +14064,7 @@
       <c r="D84" t="s">
         <v>162</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14076,7 +14081,7 @@
       <c r="D85" t="s">
         <v>163</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14093,7 +14098,7 @@
       <c r="D86" t="s">
         <v>164</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14110,7 +14115,7 @@
       <c r="D87" t="s">
         <v>165</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14127,8 +14132,8 @@
       <c r="D88" t="s">
         <v>166</v>
       </c>
-      <c r="E88" t="s">
-        <v>92</v>
+      <c r="E88" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -14144,8 +14149,8 @@
       <c r="D89" t="s">
         <v>167</v>
       </c>
-      <c r="E89" t="s">
-        <v>92</v>
+      <c r="E89" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -14161,8 +14166,8 @@
       <c r="D90" t="s">
         <v>168</v>
       </c>
-      <c r="E90" t="s">
-        <v>92</v>
+      <c r="E90" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -14178,7 +14183,7 @@
       <c r="D91" t="s">
         <v>169</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14195,7 +14200,7 @@
       <c r="D92" t="s">
         <v>170</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14212,7 +14217,7 @@
       <c r="D93" t="s">
         <v>171</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14229,7 +14234,7 @@
       <c r="D94" t="s">
         <v>172</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14246,7 +14251,7 @@
       <c r="D95" t="s">
         <v>173</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14263,7 +14268,7 @@
       <c r="D96" t="s">
         <v>174</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14280,7 +14285,7 @@
       <c r="D97" t="s">
         <v>175</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14297,7 +14302,7 @@
       <c r="D98" t="s">
         <v>176</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14314,8 +14319,8 @@
       <c r="D99" t="s">
         <v>177</v>
       </c>
-      <c r="E99" t="s">
-        <v>92</v>
+      <c r="E99" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -14331,7 +14336,7 @@
       <c r="D100" t="s">
         <v>178</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14348,7 +14353,7 @@
       <c r="D101" t="s">
         <v>179</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14365,7 +14370,7 @@
       <c r="D102" t="s">
         <v>180</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14382,7 +14387,7 @@
       <c r="D103" t="s">
         <v>181</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14399,7 +14404,7 @@
       <c r="D104" t="s">
         <v>182</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14416,7 +14421,7 @@
       <c r="D105" t="s">
         <v>183</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14433,8 +14438,8 @@
       <c r="D106" t="s">
         <v>184</v>
       </c>
-      <c r="E106" t="s">
-        <v>92</v>
+      <c r="E106" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -14450,8 +14455,8 @@
       <c r="D107" t="s">
         <v>185</v>
       </c>
-      <c r="E107" t="s">
-        <v>92</v>
+      <c r="E107" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -14467,8 +14472,8 @@
       <c r="D108" t="s">
         <v>268</v>
       </c>
-      <c r="E108" t="s">
-        <v>92</v>
+      <c r="E108" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -14484,7 +14489,7 @@
       <c r="D109" t="s">
         <v>270</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14501,8 +14506,8 @@
       <c r="D110" t="s">
         <v>271</v>
       </c>
-      <c r="E110" t="s">
-        <v>91</v>
+      <c r="E110" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -14518,8 +14523,8 @@
       <c r="D111" t="s">
         <v>272</v>
       </c>
-      <c r="E111" t="s">
-        <v>91</v>
+      <c r="E111" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -14535,8 +14540,8 @@
       <c r="D112" t="s">
         <v>273</v>
       </c>
-      <c r="E112" t="s">
-        <v>96</v>
+      <c r="E112" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -14552,7 +14557,7 @@
       <c r="D113" t="s">
         <v>274</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14569,7 +14574,7 @@
       <c r="D114" t="s">
         <v>275</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14586,7 +14591,7 @@
       <c r="D115" t="s">
         <v>276</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14603,7 +14608,7 @@
       <c r="D116" t="s">
         <v>277</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14620,8 +14625,8 @@
       <c r="D117" t="s">
         <v>278</v>
       </c>
-      <c r="E117" t="s">
-        <v>91</v>
+      <c r="E117" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -14637,8 +14642,8 @@
       <c r="D118" t="s">
         <v>279</v>
       </c>
-      <c r="E118" t="s">
-        <v>91</v>
+      <c r="E118" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -14654,8 +14659,8 @@
       <c r="D119" t="s">
         <v>280</v>
       </c>
-      <c r="E119" t="s">
-        <v>91</v>
+      <c r="E119" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -14671,7 +14676,7 @@
       <c r="D120" t="s">
         <v>281</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14688,7 +14693,7 @@
       <c r="D121" t="s">
         <v>282</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14705,7 +14710,7 @@
       <c r="D122" t="s">
         <v>283</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14722,7 +14727,7 @@
       <c r="D123" t="s">
         <v>284</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14739,7 +14744,7 @@
       <c r="D124" t="s">
         <v>285</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14756,7 +14761,7 @@
       <c r="D125" t="s">
         <v>286</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14773,7 +14778,7 @@
       <c r="D126" t="s">
         <v>287</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14790,7 +14795,7 @@
       <c r="D127" t="s">
         <v>288</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14807,8 +14812,8 @@
       <c r="D128" t="s">
         <v>289</v>
       </c>
-      <c r="E128" t="s">
-        <v>91</v>
+      <c r="E128" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -14824,7 +14829,7 @@
       <c r="D129" t="s">
         <v>290</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14841,7 +14846,7 @@
       <c r="D130" t="s">
         <v>291</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14858,7 +14863,7 @@
       <c r="D131" t="s">
         <v>292</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14875,7 +14880,7 @@
       <c r="D132" t="s">
         <v>293</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14892,7 +14897,7 @@
       <c r="D133" t="s">
         <v>294</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14909,7 +14914,7 @@
       <c r="D134" t="s">
         <v>295</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14926,8 +14931,8 @@
       <c r="D135" t="s">
         <v>296</v>
       </c>
-      <c r="E135" t="s">
-        <v>91</v>
+      <c r="E135" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -14943,8 +14948,8 @@
       <c r="D136" t="s">
         <v>297</v>
       </c>
-      <c r="E136" t="s">
-        <v>91</v>
+      <c r="E136" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -14960,8 +14965,8 @@
       <c r="D137" t="s">
         <v>298</v>
       </c>
-      <c r="E137" t="s">
-        <v>91</v>
+      <c r="E137" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -14977,7 +14982,7 @@
       <c r="D138" t="s">
         <v>299</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14994,7 +14999,7 @@
       <c r="D139" t="s">
         <v>300</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15011,7 +15016,7 @@
       <c r="D140" t="s">
         <v>301</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15028,7 +15033,7 @@
       <c r="D141" t="s">
         <v>302</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15045,7 +15050,7 @@
       <c r="D142" t="s">
         <v>303</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15062,7 +15067,7 @@
       <c r="D143" t="s">
         <v>304</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15079,7 +15084,7 @@
       <c r="D144" t="s">
         <v>305</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15096,7 +15101,7 @@
       <c r="D145" t="s">
         <v>306</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15113,8 +15118,8 @@
       <c r="D146" t="s">
         <v>307</v>
       </c>
-      <c r="E146" t="s">
-        <v>91</v>
+      <c r="E146" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -15130,7 +15135,7 @@
       <c r="D147" t="s">
         <v>308</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15147,7 +15152,7 @@
       <c r="D148" t="s">
         <v>309</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15164,7 +15169,7 @@
       <c r="D149" t="s">
         <v>310</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15181,7 +15186,7 @@
       <c r="D150" t="s">
         <v>311</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15198,7 +15203,7 @@
       <c r="D151" t="s">
         <v>312</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15215,7 +15220,7 @@
       <c r="D152" t="s">
         <v>313</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15232,8 +15237,8 @@
       <c r="D153" t="s">
         <v>314</v>
       </c>
-      <c r="E153" t="s">
-        <v>91</v>
+      <c r="E153" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -15249,8 +15254,8 @@
       <c r="D154" t="s">
         <v>315</v>
       </c>
-      <c r="E154" t="s">
-        <v>91</v>
+      <c r="E154" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -15266,8 +15271,8 @@
       <c r="D155" t="s">
         <v>316</v>
       </c>
-      <c r="E155" t="s">
-        <v>91</v>
+      <c r="E155" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -15283,7 +15288,7 @@
       <c r="D156" t="s">
         <v>317</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15300,7 +15305,7 @@
       <c r="D157" t="s">
         <v>318</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15317,7 +15322,7 @@
       <c r="D158" t="s">
         <v>319</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15334,7 +15339,7 @@
       <c r="D159" t="s">
         <v>320</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15351,7 +15356,7 @@
       <c r="D160" t="s">
         <v>321</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15368,7 +15373,7 @@
       <c r="D161" t="s">
         <v>322</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15385,7 +15390,7 @@
       <c r="D162" t="s">
         <v>323</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15402,8 +15407,8 @@
       <c r="D163" t="s">
         <v>324</v>
       </c>
-      <c r="E163" t="s">
-        <v>91</v>
+      <c r="E163" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -15419,8 +15424,8 @@
       <c r="D164" t="s">
         <v>325</v>
       </c>
-      <c r="E164" t="s">
-        <v>92</v>
+      <c r="E164" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -15436,7 +15441,7 @@
       <c r="D165" t="s">
         <v>326</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15453,7 +15458,7 @@
       <c r="D166" t="s">
         <v>327</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15470,7 +15475,7 @@
       <c r="D167" t="s">
         <v>328</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15487,7 +15492,7 @@
       <c r="D168" t="s">
         <v>329</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15504,7 +15509,7 @@
       <c r="D169" t="s">
         <v>330</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15521,7 +15526,7 @@
       <c r="D170" t="s">
         <v>331</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15538,8 +15543,8 @@
       <c r="D171" t="s">
         <v>332</v>
       </c>
-      <c r="E171" t="s">
-        <v>92</v>
+      <c r="E171" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -15555,8 +15560,8 @@
       <c r="D172" t="s">
         <v>333</v>
       </c>
-      <c r="E172" t="s">
-        <v>92</v>
+      <c r="E172" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -15572,8 +15577,8 @@
       <c r="D173" t="s">
         <v>334</v>
       </c>
-      <c r="E173" t="s">
-        <v>92</v>
+      <c r="E173" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -15589,7 +15594,7 @@
       <c r="D174" t="s">
         <v>335</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15606,7 +15611,7 @@
       <c r="D175" t="s">
         <v>336</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15623,7 +15628,7 @@
       <c r="D176" t="s">
         <v>337</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15640,7 +15645,7 @@
       <c r="D177" t="s">
         <v>338</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E177" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15657,7 +15662,7 @@
       <c r="D178" t="s">
         <v>339</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15674,7 +15679,7 @@
       <c r="D179" t="s">
         <v>340</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15691,7 +15696,7 @@
       <c r="D180" t="s">
         <v>341</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15708,7 +15713,7 @@
       <c r="D181" t="s">
         <v>342</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E181" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15725,8 +15730,8 @@
       <c r="D182" t="s">
         <v>343</v>
       </c>
-      <c r="E182" t="s">
-        <v>92</v>
+      <c r="E182" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -15742,7 +15747,7 @@
       <c r="D183" t="s">
         <v>344</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15759,7 +15764,7 @@
       <c r="D184" t="s">
         <v>345</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15776,7 +15781,7 @@
       <c r="D185" t="s">
         <v>346</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15793,7 +15798,7 @@
       <c r="D186" t="s">
         <v>347</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15810,7 +15815,7 @@
       <c r="D187" t="s">
         <v>348</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15827,7 +15832,7 @@
       <c r="D188" t="s">
         <v>349</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15844,8 +15849,8 @@
       <c r="D189" t="s">
         <v>350</v>
       </c>
-      <c r="E189" t="s">
-        <v>92</v>
+      <c r="E189" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -15861,8 +15866,8 @@
       <c r="D190" t="s">
         <v>351</v>
       </c>
-      <c r="E190" t="s">
-        <v>92</v>
+      <c r="E190" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -15878,8 +15883,8 @@
       <c r="D191" t="s">
         <v>352</v>
       </c>
-      <c r="E191" t="s">
-        <v>92</v>
+      <c r="E191" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -15895,7 +15900,7 @@
       <c r="D192" t="s">
         <v>542</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15912,8 +15917,8 @@
       <c r="D193" t="s">
         <v>543</v>
       </c>
-      <c r="E193" t="s">
-        <v>91</v>
+      <c r="E193" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -15929,7 +15934,7 @@
       <c r="D194" t="s">
         <v>544</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15946,8 +15951,8 @@
       <c r="D195" t="s">
         <v>545</v>
       </c>
-      <c r="E195" t="s">
-        <v>96</v>
+      <c r="E195" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -15963,7 +15968,7 @@
       <c r="D196" t="s">
         <v>546</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15980,7 +15985,7 @@
       <c r="D197" t="s">
         <v>547</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15997,7 +16002,7 @@
       <c r="D198" t="s">
         <v>548</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="4" t="s">
         <v>91</v>
       </c>
     </row>

--- a/Base/db_backboneConfig_300.xlsx
+++ b/Base/db_backboneConfig_300.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilli\Documents\Project HOLON\Git_Local_Clone\HOLON\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405E2B53-BC96-4889-B05C-C7996D739D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A740359-C236-427B-897A-88F3EA96CA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18375" yWindow="3720" windowWidth="28470" windowHeight="16920" activeTab="2" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
+    <workbookView xWindow="3615" yWindow="3090" windowWidth="28470" windowHeight="16920" activeTab="2" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="689">
   <si>
     <t>id</t>
   </si>
@@ -2104,6 +2104,9 @@
   </si>
   <si>
     <t>HEATPUMP_BOILERPEAK</t>
+  </si>
+  <si>
+    <t>HEATPUMP_GASPEAK</t>
   </si>
 </sst>
 </file>
@@ -2705,7 +2708,7 @@
   <dimension ref="A1:K303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2774,7 +2777,7 @@
         <v>657</v>
       </c>
       <c r="G2" t="s">
-        <v>651</v>
+        <v>688</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
